--- a/CustomLocalization/Localization/RogueTech/RU/Abilifier/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Abilifier/LocalizationDef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+    <workbookView xWindow="180" yWindow="510" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
   <si>
     <t>AbilityDefBPerfectAim.Description.Details</t>
   </si>
@@ -862,10 +862,10 @@
     <t>AbilityG5Bandit.Description.Details</t>
   </si>
   <si>
-    <t>25% Increased Critical Strike Chance.+6 to Clustering Roll modifiers,</t>
-  </si>
-  <si>
-    <t>25% выше шанс крита.+6 к offensive push.</t>
+    <t>25% Increased Critical Strike Chance. +0.5 to Clustering Roll modifiers,</t>
+  </si>
+  <si>
+    <t>25% выше шанс крита. +0.5 к броскам на кучность,</t>
   </si>
   <si>
     <t>AbilityG5Bandit.Description.Name</t>
@@ -976,10 +976,10 @@
     <t>AbilityG8Warlord.Description.Details</t>
   </si>
   <si>
-    <t>ACTION: Gain +1 Accuracy, +10 to Clustering Roll modifiers, +10% to Called Shot Multiplier. 3 Turn Cooldown.</t>
-  </si>
-  <si>
-    <t>АКТИВАЦИЯ: даёт +1 точности, +10 к броскам на кучность, +10% к Offensive Push. Перезарядка 3 хода.</t>
+    <t>ACTION: Gain +1 Accuracy, +1 to Clustering Roll modifiers, +10% to Called Shot Multiplier. 3 Turn Cooldown.</t>
+  </si>
+  <si>
+    <t>АКТИВАЦИЯ: даёт +1 точности, +1 к броскам на кучность, +10% к Offensive Push. Перезарядка 3 хода.</t>
   </si>
   <si>
     <t>AbilityG8Warlord.Description.Name</t>
@@ -1552,7 +1552,7 @@
     <t>AbilityT5AI.Description.Details</t>
   </si>
   <si>
-    <t>PASSIVE: Remove one bar of stability damage when Reserving. +1 to Initiative and Tactics Rolls.</t>
+    <t xml:space="preserve">PASSIVE: Remove one bar of stability damage when Reserving.  +1 to Initiative and Tactics Rolls.</t>
   </si>
   <si>
     <t>ПАССИВНО: при пропуске хода убирает 1 полоску нестабильности. +1 к броскам инициативы и тактики.</t>
@@ -1606,7 +1606,7 @@
     <t>AbilityT5Tactician.Description.Details</t>
   </si>
   <si>
-    <t>PASSIVE: +15% Max Sight/Sensor. +1 to Initiative and Tactics Rolls.</t>
+    <t xml:space="preserve">PASSIVE: +15% Max Sight/Sensor.  +1 to Initiative and Tactics Rolls.</t>
   </si>
   <si>
     <t>ПАССИВНО: +15% макс. сенсоры/обзор. +1 к броскам инициативы и тактики.</t>
@@ -2558,6 +2558,27 @@
   </si>
   <si>
     <t>TraitTacSight50.TraittacSight50.EffectData0.Name</t>
+  </si>
+  <si>
+    <t>AbilityG8AI.StatusEffect_BCHeat.EffectData1.Details</t>
+  </si>
+  <si>
+    <t>Heat generation reduced by 3%.</t>
+  </si>
+  <si>
+    <t>Нагрев снижен на 3%.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AbilityG8AI.StatusEffect_BCHeat.EffectData1.Name</t>
+  </si>
+  <si>
+    <t>Heat generation decreased</t>
+  </si>
+  <si>
+    <t>Нагрев понижен</t>
   </si>
 </sst>
 </file>
@@ -2576,12 +2597,17 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2596,9 +2622,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -2896,16 +2925,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C465"/>
+  <dimension ref="A1:F467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="64" customWidth="1" style="2"/>
-    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="77.7109375" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2918,6 +2948,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2929,6 +2962,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -2940,6 +2976,9 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -2951,6 +2990,9 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -2962,6 +3004,9 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -2973,6 +3018,9 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -2984,6 +3032,9 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -2995,6 +3046,9 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -3006,6 +3060,9 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E9" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -3017,6 +3074,9 @@
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -3028,6 +3088,9 @@
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E11" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -3039,6 +3102,9 @@
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E12" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -3050,6 +3116,9 @@
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E13" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -3061,6 +3130,9 @@
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E14" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -3072,6 +3144,9 @@
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E15" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -3083,6 +3158,9 @@
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E16" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -3094,6 +3172,9 @@
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E17" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -3105,6 +3186,9 @@
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E18" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -3116,6 +3200,9 @@
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E19" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -3127,6 +3214,9 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -3138,6 +3228,9 @@
       <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="E21" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -3149,6 +3242,9 @@
       <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E22" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -3160,6 +3256,9 @@
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E23" s="3">
+        <v>23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -3171,6 +3270,9 @@
       <c r="C24" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="E24" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -3182,6 +3284,9 @@
       <c r="C25" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E25" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -3193,6 +3298,9 @@
       <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="E26" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -3204,6 +3312,9 @@
       <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="E27" s="3">
+        <v>27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -3215,6 +3326,9 @@
       <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="E28" s="3">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -3226,6 +3340,9 @@
       <c r="C29" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="E29" s="3">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -3237,6 +3354,9 @@
       <c r="C30" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="E30" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -3248,6 +3368,9 @@
       <c r="C31" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="E31" s="3">
+        <v>31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -3259,6 +3382,9 @@
       <c r="C32" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="E32" s="3">
+        <v>32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -3270,6 +3396,9 @@
       <c r="C33" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="E33" s="3">
+        <v>33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -3281,6 +3410,9 @@
       <c r="C34" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="E34" s="3">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -3292,6 +3424,9 @@
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="E35" s="3">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -3303,6 +3438,9 @@
       <c r="C36" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E36" s="3">
+        <v>36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -3314,6 +3452,9 @@
       <c r="C37" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="E37" s="3">
+        <v>37</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -3325,6 +3466,9 @@
       <c r="C38" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="E38" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -3336,6 +3480,9 @@
       <c r="C39" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="E39" s="3">
+        <v>39</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -3347,6 +3494,9 @@
       <c r="C40" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E40" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -3358,6 +3508,9 @@
       <c r="C41" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="E41" s="3">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -3369,6 +3522,9 @@
       <c r="C42" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="E42" s="3">
+        <v>42</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -3380,6 +3536,9 @@
       <c r="C43" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="E43" s="3">
+        <v>43</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
@@ -3391,6 +3550,9 @@
       <c r="C44" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="E44" s="3">
+        <v>44</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -3402,6 +3564,9 @@
       <c r="C45" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="E45" s="3">
+        <v>45</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
@@ -3413,6 +3578,9 @@
       <c r="C46" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="E46" s="3">
+        <v>46</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
@@ -3424,6 +3592,9 @@
       <c r="C47" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="E47" s="3">
+        <v>47</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
@@ -3435,6 +3606,9 @@
       <c r="C48" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E48" s="3">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
@@ -3446,6 +3620,9 @@
       <c r="C49" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E49" s="3">
+        <v>49</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
@@ -3457,6 +3634,9 @@
       <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="E50" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
@@ -3468,6 +3648,9 @@
       <c r="C51" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E51" s="3">
+        <v>51</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -3479,6 +3662,9 @@
       <c r="C52" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="E52" s="3">
+        <v>52</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -3490,6 +3676,9 @@
       <c r="C53" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="E53" s="3">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
@@ -3501,6 +3690,9 @@
       <c r="C54" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="E54" s="3">
+        <v>54</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
@@ -3512,6 +3704,9 @@
       <c r="C55" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="E55" s="3">
+        <v>55</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
@@ -3523,6 +3718,9 @@
       <c r="C56" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E56" s="3">
+        <v>56</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
@@ -3534,6 +3732,9 @@
       <c r="C57" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="E57" s="3">
+        <v>57</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
@@ -3545,6 +3746,9 @@
       <c r="C58" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="E58" s="3">
+        <v>58</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
@@ -3556,6 +3760,9 @@
       <c r="C59" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="E59" s="3">
+        <v>59</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
@@ -3567,6 +3774,9 @@
       <c r="C60" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="E60" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
@@ -3578,6 +3788,9 @@
       <c r="C61" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="E61" s="3">
+        <v>61</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
@@ -3589,6 +3802,9 @@
       <c r="C62" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="E62" s="3">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
@@ -3600,6 +3816,9 @@
       <c r="C63" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="E63" s="3">
+        <v>63</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
@@ -3611,6 +3830,9 @@
       <c r="C64" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E64" s="3">
+        <v>64</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
@@ -3622,6 +3844,9 @@
       <c r="C65" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="E65" s="3">
+        <v>65</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
@@ -3633,6 +3858,9 @@
       <c r="C66" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="E66" s="3">
+        <v>66</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
@@ -3644,6 +3872,9 @@
       <c r="C67" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="E67" s="3">
+        <v>67</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
@@ -3655,6 +3886,9 @@
       <c r="C68" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="E68" s="3">
+        <v>68</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
@@ -3666,6 +3900,9 @@
       <c r="C69" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="E69" s="3">
+        <v>69</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
@@ -3677,6 +3914,9 @@
       <c r="C70" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="E70" s="3">
+        <v>70</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
@@ -3688,6 +3928,9 @@
       <c r="C71" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="E71" s="3">
+        <v>71</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
@@ -3699,6 +3942,9 @@
       <c r="C72" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="E72" s="3">
+        <v>72</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
@@ -3710,6 +3956,9 @@
       <c r="C73" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="E73" s="3">
+        <v>73</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
@@ -3721,6 +3970,9 @@
       <c r="C74" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="E74" s="3">
+        <v>74</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
@@ -3732,6 +3984,9 @@
       <c r="C75" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="E75" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
@@ -3743,6 +3998,9 @@
       <c r="C76" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="E76" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
@@ -3754,6 +4012,9 @@
       <c r="C77" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="E77" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
@@ -3765,6 +4026,9 @@
       <c r="C78" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="E78" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
@@ -3776,6 +4040,9 @@
       <c r="C79" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="E79" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
@@ -3787,6 +4054,9 @@
       <c r="C80" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="E80" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
@@ -3798,6 +4068,9 @@
       <c r="C81" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="E81" s="3">
+        <v>81</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
@@ -3809,6 +4082,9 @@
       <c r="C82" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="E82" s="3">
+        <v>82</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
@@ -3820,6 +4096,9 @@
       <c r="C83" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="E83" s="3">
+        <v>83</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
@@ -3831,6 +4110,9 @@
       <c r="C84" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="E84" s="3">
+        <v>84</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
@@ -3842,6 +4124,9 @@
       <c r="C85" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="E85" s="3">
+        <v>85</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
@@ -3853,6 +4138,9 @@
       <c r="C86" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E86" s="3">
+        <v>86</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
@@ -3864,6 +4152,9 @@
       <c r="C87" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E87" s="3">
+        <v>87</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
@@ -3875,6 +4166,9 @@
       <c r="C88" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E88" s="3">
+        <v>88</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
@@ -3886,6 +4180,9 @@
       <c r="C89" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E89" s="3">
+        <v>89</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
@@ -3897,6 +4194,9 @@
       <c r="C90" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E90" s="3">
+        <v>90</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
@@ -3908,6 +4208,9 @@
       <c r="C91" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E91" s="3">
+        <v>91</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
@@ -3919,6 +4222,9 @@
       <c r="C92" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E92" s="3">
+        <v>92</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
@@ -3930,6 +4236,9 @@
       <c r="C93" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E93" s="3">
+        <v>93</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
@@ -3941,6 +4250,9 @@
       <c r="C94" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="E94" s="3">
+        <v>94</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
@@ -3952,6 +4264,9 @@
       <c r="C95" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="E95" s="3">
+        <v>95</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
@@ -3963,6 +4278,9 @@
       <c r="C96" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="E96" s="3">
+        <v>96</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
@@ -3974,6 +4292,9 @@
       <c r="C97" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="E97" s="3">
+        <v>97</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
@@ -3985,6 +4306,9 @@
       <c r="C98" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="E98" s="3">
+        <v>98</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
@@ -3996,6 +4320,9 @@
       <c r="C99" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="E99" s="3">
+        <v>99</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
@@ -4007,6 +4334,9 @@
       <c r="C100" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
@@ -4018,6 +4348,9 @@
       <c r="C101" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="E101" s="3">
+        <v>101</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
@@ -4029,6 +4362,9 @@
       <c r="C102" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="E102" s="3">
+        <v>102</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
@@ -4040,6 +4376,9 @@
       <c r="C103" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="E103" s="3">
+        <v>103</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
@@ -4051,6 +4390,9 @@
       <c r="C104" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="E104" s="3">
+        <v>104</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
@@ -4062,6 +4404,9 @@
       <c r="C105" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="E105" s="3">
+        <v>105</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
@@ -4073,6 +4418,9 @@
       <c r="C106" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="E106" s="3">
+        <v>106</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
@@ -4084,6 +4432,9 @@
       <c r="C107" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E107" s="3">
+        <v>107</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
@@ -4095,6 +4446,9 @@
       <c r="C108" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="E108" s="3">
+        <v>108</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
@@ -4106,6 +4460,9 @@
       <c r="C109" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E109" s="3">
+        <v>109</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
@@ -4117,6 +4474,9 @@
       <c r="C110" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="E110" s="3">
+        <v>110</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
@@ -4128,6 +4488,9 @@
       <c r="C111" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="E111" s="3">
+        <v>111</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
@@ -4139,6 +4502,9 @@
       <c r="C112" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="E112" s="3">
+        <v>112</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
@@ -4150,6 +4516,9 @@
       <c r="C113" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="E113" s="3">
+        <v>113</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
@@ -4161,6 +4530,9 @@
       <c r="C114" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="E114" s="3">
+        <v>114</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
@@ -4172,6 +4544,9 @@
       <c r="C115" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="E115" s="3">
+        <v>115</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
@@ -4183,6 +4558,9 @@
       <c r="C116" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="E116" s="3">
+        <v>116</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
@@ -4194,16 +4572,22 @@
       <c r="C117" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
+      <c r="E117" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" s="3" customFormat="1">
+      <c r="A118" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="5" t="s">
         <v>283</v>
+      </c>
+      <c r="E118" s="3">
+        <v>118</v>
       </c>
     </row>
     <row r="119">
@@ -4216,6 +4600,9 @@
       <c r="C119" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="E119" s="3">
+        <v>119</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
@@ -4227,6 +4614,9 @@
       <c r="C120" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="E120" s="3">
+        <v>120</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
@@ -4238,6 +4628,9 @@
       <c r="C121" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="E121" s="3">
+        <v>121</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
@@ -4249,6 +4642,9 @@
       <c r="C122" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="E122" s="3">
+        <v>122</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
@@ -4260,6 +4656,9 @@
       <c r="C123" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E123" s="3">
+        <v>123</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
@@ -4271,6 +4670,9 @@
       <c r="C124" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="E124" s="3">
+        <v>124</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
@@ -4282,6 +4684,9 @@
       <c r="C125" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="E125" s="3">
+        <v>125</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
@@ -4293,6 +4698,9 @@
       <c r="C126" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="E126" s="3">
+        <v>126</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
@@ -4304,6 +4712,9 @@
       <c r="C127" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="E127" s="3">
+        <v>127</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
@@ -4315,6 +4726,9 @@
       <c r="C128" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="E128" s="3">
+        <v>128</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
@@ -4326,6 +4740,9 @@
       <c r="C129" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E129" s="3">
+        <v>129</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
@@ -4337,6 +4754,9 @@
       <c r="C130" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="E130" s="3">
+        <v>130</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
@@ -4348,6 +4768,9 @@
       <c r="C131" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="E131" s="3">
+        <v>131</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
@@ -4359,6 +4782,9 @@
       <c r="C132" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="E132" s="3">
+        <v>132</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
@@ -4370,6 +4796,9 @@
       <c r="C133" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="E133" s="3">
+        <v>133</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
@@ -4381,6 +4810,9 @@
       <c r="C134" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="E134" s="3">
+        <v>134</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
@@ -4392,6 +4824,9 @@
       <c r="C135" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="E135" s="3">
+        <v>135</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
@@ -4403,6 +4838,9 @@
       <c r="C136" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="E136" s="3">
+        <v>136</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
@@ -4414,6 +4852,9 @@
       <c r="C137" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="E137" s="3">
+        <v>137</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
@@ -4425,6 +4866,9 @@
       <c r="C138" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="E138" s="3">
+        <v>138</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
@@ -4436,6 +4880,9 @@
       <c r="C139" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E139" s="3">
+        <v>139</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
@@ -4447,6 +4894,9 @@
       <c r="C140" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="E140" s="3">
+        <v>140</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
@@ -4458,6 +4908,9 @@
       <c r="C141" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="E141" s="3">
+        <v>141</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
@@ -4469,61 +4922,89 @@
       <c r="C142" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="E142" s="3">
+        <v>142</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>278</v>
       </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3">
+        <v>143</v>
+      </c>
+      <c r="F143" s="3"/>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3">
+        <v>144</v>
+      </c>
+      <c r="F144" s="3"/>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="s">
+      <c r="D145" s="3"/>
+      <c r="E145" s="3">
+        <v>145</v>
+      </c>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" s="4" customFormat="1">
+      <c r="A146" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="5" t="s">
         <v>321</v>
       </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3">
+        <v>146</v>
+      </c>
+      <c r="F146" s="3"/>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3">
+        <v>147</v>
+      </c>
+      <c r="F147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
@@ -4535,6 +5016,9 @@
       <c r="C148" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="E148" s="3">
+        <v>148</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
@@ -4546,6 +5030,9 @@
       <c r="C149" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E149" s="3">
+        <v>149</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
@@ -4557,6 +5044,9 @@
       <c r="C150" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="E150" s="3">
+        <v>150</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
@@ -4568,6 +5058,9 @@
       <c r="C151" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="E151" s="3">
+        <v>151</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
@@ -4579,6 +5072,9 @@
       <c r="C152" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="E152" s="3">
+        <v>152</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
@@ -4590,6 +5086,9 @@
       <c r="C153" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="E153" s="3">
+        <v>153</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
@@ -4601,6 +5100,9 @@
       <c r="C154" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="E154" s="3">
+        <v>154</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
@@ -4612,6 +5114,9 @@
       <c r="C155" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="E155" s="3">
+        <v>155</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
@@ -4623,6 +5128,9 @@
       <c r="C156" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="E156" s="3">
+        <v>156</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
@@ -4634,6 +5142,9 @@
       <c r="C157" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="E157" s="3">
+        <v>157</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
@@ -4645,6 +5156,9 @@
       <c r="C158" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="E158" s="3">
+        <v>158</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
@@ -4656,6 +5170,9 @@
       <c r="C159" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="E159" s="3">
+        <v>159</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
@@ -4667,6 +5184,9 @@
       <c r="C160" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="E160" s="3">
+        <v>160</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
@@ -4678,6 +5198,9 @@
       <c r="C161" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="E161" s="3">
+        <v>161</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
@@ -4689,6 +5212,9 @@
       <c r="C162" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="E162" s="3">
+        <v>162</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
@@ -4700,6 +5226,9 @@
       <c r="C163" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="E163" s="3">
+        <v>163</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
@@ -4711,6 +5240,9 @@
       <c r="C164" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="E164" s="3">
+        <v>164</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
@@ -4722,6 +5254,9 @@
       <c r="C165" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="E165" s="3">
+        <v>165</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
@@ -4733,6 +5268,9 @@
       <c r="C166" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E166" s="3">
+        <v>166</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
@@ -4744,6 +5282,9 @@
       <c r="C167" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="E167" s="3">
+        <v>167</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
@@ -4755,6 +5296,9 @@
       <c r="C168" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E168" s="3">
+        <v>168</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
@@ -4766,6 +5310,9 @@
       <c r="C169" s="2" t="s">
         <v>356</v>
       </c>
+      <c r="E169" s="3">
+        <v>169</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
@@ -4777,6 +5324,9 @@
       <c r="C170" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E170" s="3">
+        <v>170</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
@@ -4788,6 +5338,9 @@
       <c r="C171" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="E171" s="3">
+        <v>171</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
@@ -4799,6 +5352,9 @@
       <c r="C172" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E172" s="3">
+        <v>172</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
@@ -4810,6 +5366,9 @@
       <c r="C173" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="E173" s="3">
+        <v>173</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
@@ -4821,6 +5380,9 @@
       <c r="C174" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E174" s="3">
+        <v>174</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
@@ -4832,6 +5394,9 @@
       <c r="C175" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="E175" s="3">
+        <v>175</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
@@ -4843,6 +5408,9 @@
       <c r="C176" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E176" s="3">
+        <v>176</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
@@ -4854,6 +5422,9 @@
       <c r="C177" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="E177" s="3">
+        <v>177</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
@@ -4865,6 +5436,9 @@
       <c r="C178" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E178" s="3">
+        <v>178</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
@@ -4876,6 +5450,9 @@
       <c r="C179" s="2" t="s">
         <v>371</v>
       </c>
+      <c r="E179" s="3">
+        <v>179</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
@@ -4887,6 +5464,9 @@
       <c r="C180" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E180" s="3">
+        <v>180</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
@@ -4898,6 +5478,9 @@
       <c r="C181" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="E181" s="3">
+        <v>181</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
@@ -4909,6 +5492,9 @@
       <c r="C182" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E182" s="3">
+        <v>182</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
@@ -4920,6 +5506,9 @@
       <c r="C183" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="E183" s="3">
+        <v>183</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
@@ -4931,6 +5520,9 @@
       <c r="C184" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E184" s="3">
+        <v>184</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
@@ -4942,6 +5534,9 @@
       <c r="C185" s="2" t="s">
         <v>380</v>
       </c>
+      <c r="E185" s="3">
+        <v>185</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
@@ -4953,6 +5548,9 @@
       <c r="C186" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E186" s="3">
+        <v>186</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
@@ -4964,6 +5562,9 @@
       <c r="C187" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="E187" s="3">
+        <v>187</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
@@ -4975,6 +5576,9 @@
       <c r="C188" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E188" s="3">
+        <v>188</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
@@ -4986,6 +5590,9 @@
       <c r="C189" s="2" t="s">
         <v>386</v>
       </c>
+      <c r="E189" s="3">
+        <v>189</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
@@ -4997,6 +5604,9 @@
       <c r="C190" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E190" s="3">
+        <v>190</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
@@ -5008,6 +5618,9 @@
       <c r="C191" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="E191" s="3">
+        <v>191</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
@@ -5019,6 +5632,9 @@
       <c r="C192" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E192" s="3">
+        <v>192</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
@@ -5030,6 +5646,9 @@
       <c r="C193" s="2" t="s">
         <v>392</v>
       </c>
+      <c r="E193" s="3">
+        <v>193</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
@@ -5041,6 +5660,9 @@
       <c r="C194" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E194" s="3">
+        <v>194</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
@@ -5052,6 +5674,9 @@
       <c r="C195" s="2" t="s">
         <v>395</v>
       </c>
+      <c r="E195" s="3">
+        <v>195</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
@@ -5063,6 +5688,9 @@
       <c r="C196" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E196" s="3">
+        <v>196</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
@@ -5074,6 +5702,9 @@
       <c r="C197" s="2" t="s">
         <v>398</v>
       </c>
+      <c r="E197" s="3">
+        <v>197</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
@@ -5085,6 +5716,9 @@
       <c r="C198" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E198" s="3">
+        <v>198</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
@@ -5096,6 +5730,9 @@
       <c r="C199" s="2" t="s">
         <v>401</v>
       </c>
+      <c r="E199" s="3">
+        <v>199</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
@@ -5107,6 +5744,9 @@
       <c r="C200" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="E200" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
@@ -5118,6 +5758,9 @@
       <c r="C201" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E201" s="3">
+        <v>201</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
@@ -5129,6 +5772,9 @@
       <c r="C202" s="2" t="s">
         <v>406</v>
       </c>
+      <c r="E202" s="3">
+        <v>202</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
@@ -5140,6 +5786,9 @@
       <c r="C203" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="E203" s="3">
+        <v>203</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
@@ -5151,6 +5800,9 @@
       <c r="C204" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E204" s="3">
+        <v>204</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
@@ -5162,6 +5814,9 @@
       <c r="C205" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="E205" s="3">
+        <v>205</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
@@ -5173,6 +5828,9 @@
       <c r="C206" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E206" s="3">
+        <v>206</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
@@ -5184,6 +5842,9 @@
       <c r="C207" s="2" t="s">
         <v>356</v>
       </c>
+      <c r="E207" s="3">
+        <v>207</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
@@ -5195,6 +5856,9 @@
       <c r="C208" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E208" s="3">
+        <v>208</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
@@ -5206,6 +5870,9 @@
       <c r="C209" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="E209" s="3">
+        <v>209</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
@@ -5217,6 +5884,9 @@
       <c r="C210" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E210" s="3">
+        <v>210</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
@@ -5228,6 +5898,9 @@
       <c r="C211" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="E211" s="3">
+        <v>211</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
@@ -5239,6 +5912,9 @@
       <c r="C212" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E212" s="3">
+        <v>212</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
@@ -5250,6 +5926,9 @@
       <c r="C213" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="E213" s="3">
+        <v>213</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
@@ -5261,6 +5940,9 @@
       <c r="C214" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E214" s="3">
+        <v>214</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
@@ -5272,6 +5954,9 @@
       <c r="C215" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="E215" s="3">
+        <v>215</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
@@ -5283,6 +5968,9 @@
       <c r="C216" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E216" s="3">
+        <v>216</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
@@ -5294,6 +5982,9 @@
       <c r="C217" s="2" t="s">
         <v>371</v>
       </c>
+      <c r="E217" s="3">
+        <v>217</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
@@ -5305,6 +5996,9 @@
       <c r="C218" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E218" s="3">
+        <v>218</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
@@ -5316,6 +6010,9 @@
       <c r="C219" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="E219" s="3">
+        <v>219</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
@@ -5327,6 +6024,9 @@
       <c r="C220" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E220" s="3">
+        <v>220</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
@@ -5338,6 +6038,9 @@
       <c r="C221" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="E221" s="3">
+        <v>221</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
@@ -5349,6 +6052,9 @@
       <c r="C222" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E222" s="3">
+        <v>222</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
@@ -5360,6 +6066,9 @@
       <c r="C223" s="2" t="s">
         <v>380</v>
       </c>
+      <c r="E223" s="3">
+        <v>223</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
@@ -5371,6 +6080,9 @@
       <c r="C224" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E224" s="3">
+        <v>224</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
@@ -5382,6 +6094,9 @@
       <c r="C225" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="E225" s="3">
+        <v>225</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
@@ -5393,6 +6108,9 @@
       <c r="C226" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E226" s="3">
+        <v>226</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
@@ -5404,6 +6122,9 @@
       <c r="C227" s="2" t="s">
         <v>386</v>
       </c>
+      <c r="E227" s="3">
+        <v>227</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
@@ -5415,6 +6136,9 @@
       <c r="C228" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E228" s="3">
+        <v>228</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
@@ -5426,6 +6150,9 @@
       <c r="C229" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="E229" s="3">
+        <v>229</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
@@ -5437,6 +6164,9 @@
       <c r="C230" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E230" s="3">
+        <v>230</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
@@ -5448,6 +6178,9 @@
       <c r="C231" s="2" t="s">
         <v>392</v>
       </c>
+      <c r="E231" s="3">
+        <v>231</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
@@ -5459,6 +6192,9 @@
       <c r="C232" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E232" s="3">
+        <v>232</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
@@ -5470,6 +6206,9 @@
       <c r="C233" s="2" t="s">
         <v>395</v>
       </c>
+      <c r="E233" s="3">
+        <v>233</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
@@ -5481,6 +6220,9 @@
       <c r="C234" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E234" s="3">
+        <v>234</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
@@ -5492,6 +6234,9 @@
       <c r="C235" s="2" t="s">
         <v>398</v>
       </c>
+      <c r="E235" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
@@ -5503,6 +6248,9 @@
       <c r="C236" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E236" s="3">
+        <v>236</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
@@ -5514,6 +6262,9 @@
       <c r="C237" s="2" t="s">
         <v>401</v>
       </c>
+      <c r="E237" s="3">
+        <v>237</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
@@ -5525,6 +6276,9 @@
       <c r="C238" s="2" t="s">
         <v>406</v>
       </c>
+      <c r="E238" s="3">
+        <v>238</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
@@ -5536,6 +6290,9 @@
       <c r="C239" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="E239" s="3">
+        <v>239</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
@@ -5547,6 +6304,9 @@
       <c r="C240" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="E240" s="3">
+        <v>240</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
@@ -5558,6 +6318,9 @@
       <c r="C241" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E241" s="3">
+        <v>241</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
@@ -5569,6 +6332,9 @@
       <c r="C242" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E242" s="3">
+        <v>242</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
@@ -5580,6 +6346,9 @@
       <c r="C243" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="E243" s="3">
+        <v>243</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
@@ -5591,6 +6360,9 @@
       <c r="C244" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E244" s="3">
+        <v>244</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
@@ -5602,6 +6374,9 @@
       <c r="C245" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="E245" s="3">
+        <v>245</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
@@ -5613,6 +6388,9 @@
       <c r="C246" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E246" s="3">
+        <v>246</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
@@ -5624,6 +6402,9 @@
       <c r="C247" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="E247" s="3">
+        <v>247</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
@@ -5635,6 +6416,9 @@
       <c r="C248" s="2" t="s">
         <v>454</v>
       </c>
+      <c r="E248" s="3">
+        <v>248</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
@@ -5646,6 +6430,9 @@
       <c r="C249" s="2" t="s">
         <v>457</v>
       </c>
+      <c r="E249" s="3">
+        <v>249</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
@@ -5657,6 +6444,9 @@
       <c r="C250" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="E250" s="3">
+        <v>250</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
@@ -5668,6 +6458,9 @@
       <c r="C251" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="E251" s="3">
+        <v>251</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
@@ -5679,6 +6472,9 @@
       <c r="C252" s="2" t="s">
         <v>462</v>
       </c>
+      <c r="E252" s="3">
+        <v>252</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
@@ -5690,6 +6486,9 @@
       <c r="C253" s="2" t="s">
         <v>465</v>
       </c>
+      <c r="E253" s="3">
+        <v>253</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
@@ -5701,6 +6500,9 @@
       <c r="C254" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E254" s="3">
+        <v>254</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
@@ -5712,6 +6514,9 @@
       <c r="C255" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E255" s="3">
+        <v>255</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
@@ -5723,6 +6528,9 @@
       <c r="C256" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="E256" s="3">
+        <v>256</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
@@ -5734,6 +6542,9 @@
       <c r="C257" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="E257" s="3">
+        <v>257</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
@@ -5745,6 +6556,9 @@
       <c r="C258" s="2" t="s">
         <v>472</v>
       </c>
+      <c r="E258" s="3">
+        <v>258</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
@@ -5756,6 +6570,9 @@
       <c r="C259" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="E259" s="3">
+        <v>259</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
@@ -5767,6 +6584,9 @@
       <c r="C260" s="2" t="s">
         <v>462</v>
       </c>
+      <c r="E260" s="3">
+        <v>260</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
@@ -5778,6 +6598,9 @@
       <c r="C261" s="2" t="s">
         <v>465</v>
       </c>
+      <c r="E261" s="3">
+        <v>261</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
@@ -5789,6 +6612,9 @@
       <c r="C262" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E262" s="3">
+        <v>262</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
@@ -5800,6 +6626,9 @@
       <c r="C263" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E263" s="3">
+        <v>263</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
@@ -5811,6 +6640,9 @@
       <c r="C264" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="E264" s="3">
+        <v>264</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
@@ -5822,6 +6654,9 @@
       <c r="C265" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="E265" s="3">
+        <v>265</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
@@ -5833,6 +6668,9 @@
       <c r="C266" s="2" t="s">
         <v>462</v>
       </c>
+      <c r="E266" s="3">
+        <v>266</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
@@ -5844,6 +6682,9 @@
       <c r="C267" s="2" t="s">
         <v>465</v>
       </c>
+      <c r="E267" s="3">
+        <v>267</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
@@ -5855,6 +6696,9 @@
       <c r="C268" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E268" s="3">
+        <v>268</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
@@ -5866,6 +6710,9 @@
       <c r="C269" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E269" s="3">
+        <v>269</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
@@ -5877,6 +6724,9 @@
       <c r="C270" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E270" s="3">
+        <v>270</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
@@ -5888,6 +6738,9 @@
       <c r="C271" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E271" s="3">
+        <v>271</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
@@ -5899,6 +6752,9 @@
       <c r="C272" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="E272" s="3">
+        <v>272</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
@@ -5910,6 +6766,9 @@
       <c r="C273" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="E273" s="3">
+        <v>273</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
@@ -5921,6 +6780,9 @@
       <c r="C274" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E274" s="3">
+        <v>274</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
@@ -5932,16 +6794,22 @@
       <c r="C275" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E275" s="3">
+        <v>275</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="C276" s="3" t="s">
         <v>492</v>
+      </c>
+      <c r="E276" s="3">
+        <v>276</v>
       </c>
     </row>
     <row r="277">
@@ -5954,6 +6822,9 @@
       <c r="C277" s="2" t="s">
         <v>495</v>
       </c>
+      <c r="E277" s="3">
+        <v>277</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
@@ -5965,6 +6836,9 @@
       <c r="C278" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E278" s="3">
+        <v>278</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
@@ -5976,6 +6850,9 @@
       <c r="C279" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E279" s="3">
+        <v>279</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
@@ -5987,6 +6864,9 @@
       <c r="C280" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="E280" s="3">
+        <v>280</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
@@ -5998,6 +6878,9 @@
       <c r="C281" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E281" s="3">
+        <v>281</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
@@ -6009,6 +6892,9 @@
       <c r="C282" s="2" t="s">
         <v>502</v>
       </c>
+      <c r="E282" s="3">
+        <v>282</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
@@ -6020,6 +6906,9 @@
       <c r="C283" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="E283" s="3">
+        <v>283</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
@@ -6031,6 +6920,9 @@
       <c r="C284" s="2" t="s">
         <v>505</v>
       </c>
+      <c r="E284" s="3">
+        <v>284</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
@@ -6042,49 +6934,64 @@
       <c r="C285" s="2" t="s">
         <v>508</v>
       </c>
+      <c r="E285" s="3">
+        <v>285</v>
+      </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="s">
+      <c r="A286" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="3" t="s">
         <v>241</v>
       </c>
+      <c r="E286" s="3">
+        <v>286</v>
+      </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="2" t="s">
+      <c r="E287" s="3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" s="4" customFormat="1">
+      <c r="A288" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="7" t="s">
         <v>513</v>
       </c>
+      <c r="E288" s="4">
+        <v>288</v>
+      </c>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="3" t="s">
         <v>516</v>
+      </c>
+      <c r="E289" s="3">
+        <v>289</v>
       </c>
     </row>
     <row r="290">
@@ -6097,6 +7004,9 @@
       <c r="C290" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E290" s="3">
+        <v>290</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
@@ -6108,6 +7018,9 @@
       <c r="C291" s="2" t="s">
         <v>522</v>
       </c>
+      <c r="E291" s="3">
+        <v>291</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
@@ -6119,71 +7032,92 @@
       <c r="C292" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E292" s="3">
+        <v>292</v>
+      </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="3" t="s">
         <v>522</v>
       </c>
+      <c r="E293" s="3">
+        <v>293</v>
+      </c>
     </row>
     <row r="294">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="3" t="s">
         <v>241</v>
       </c>
+      <c r="E294" s="3">
+        <v>294</v>
+      </c>
     </row>
     <row r="295">
-      <c r="A295" s="2" t="s">
+      <c r="A295" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2" t="s">
+      <c r="E295" s="3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" s="4" customFormat="1">
+      <c r="A296" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="3" t="s">
         <v>513</v>
       </c>
+      <c r="E296" s="4">
+        <v>296</v>
+      </c>
     </row>
     <row r="297">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" s="3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="2" t="s">
+      <c r="E297" s="3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" s="4" customFormat="1">
+      <c r="A298" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" s="3" t="s">
         <v>531</v>
+      </c>
+      <c r="E298" s="4">
+        <v>298</v>
       </c>
     </row>
     <row r="299">
@@ -6196,6 +7130,9 @@
       <c r="C299" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="E299" s="3">
+        <v>299</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
@@ -6207,49 +7144,64 @@
       <c r="C300" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E300" s="3">
+        <v>300</v>
+      </c>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="s">
+      <c r="A301" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="3" t="s">
         <v>522</v>
       </c>
+      <c r="E301" s="3">
+        <v>301</v>
+      </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="3" t="s">
         <v>519</v>
       </c>
+      <c r="E302" s="3">
+        <v>302</v>
+      </c>
     </row>
     <row r="303">
-      <c r="A303" s="2" t="s">
+      <c r="A303" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="3" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="2" t="s">
+      <c r="E303" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" s="4" customFormat="1">
+      <c r="A304" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" s="3" t="s">
         <v>513</v>
+      </c>
+      <c r="E304" s="4">
+        <v>304</v>
       </c>
     </row>
     <row r="305">
@@ -6262,6 +7214,9 @@
       <c r="C305" s="2" t="s">
         <v>516</v>
       </c>
+      <c r="E305" s="3">
+        <v>305</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
@@ -6273,6 +7228,9 @@
       <c r="C306" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="E306" s="3">
+        <v>306</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
@@ -6284,6 +7242,9 @@
       <c r="C307" s="2" t="s">
         <v>244</v>
       </c>
+      <c r="E307" s="3">
+        <v>307</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
@@ -6295,6 +7256,9 @@
       <c r="C308" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E308" s="3">
+        <v>308</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
@@ -6306,6 +7270,9 @@
       <c r="C309" s="2" t="s">
         <v>522</v>
       </c>
+      <c r="E309" s="3">
+        <v>309</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
@@ -6317,6 +7284,9 @@
       <c r="C310" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E310" s="3">
+        <v>310</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
@@ -6328,6 +7298,9 @@
       <c r="C311" s="2" t="s">
         <v>522</v>
       </c>
+      <c r="E311" s="3">
+        <v>311</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
@@ -6339,6 +7312,9 @@
       <c r="C312" s="2" t="s">
         <v>547</v>
       </c>
+      <c r="E312" s="3">
+        <v>312</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
@@ -6350,6 +7326,9 @@
       <c r="C313" s="2" t="s">
         <v>550</v>
       </c>
+      <c r="E313" s="3">
+        <v>313</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
@@ -6361,6 +7340,9 @@
       <c r="C314" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E314" s="3">
+        <v>314</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
@@ -6372,6 +7354,9 @@
       <c r="C315" s="2" t="s">
         <v>522</v>
       </c>
+      <c r="E315" s="3">
+        <v>315</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
@@ -6383,6 +7368,9 @@
       <c r="C316" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E316" s="3">
+        <v>316</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
@@ -6394,6 +7382,9 @@
       <c r="C317" s="2" t="s">
         <v>522</v>
       </c>
+      <c r="E317" s="3">
+        <v>317</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
@@ -6405,6 +7396,9 @@
       <c r="C318" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E318" s="3">
+        <v>318</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
@@ -6416,6 +7410,9 @@
       <c r="C319" s="2" t="s">
         <v>522</v>
       </c>
+      <c r="E319" s="3">
+        <v>319</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
@@ -6427,6 +7424,9 @@
       <c r="C320" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="E320" s="3">
+        <v>320</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
@@ -6438,6 +7438,9 @@
       <c r="C321" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="E321" s="3">
+        <v>321</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
@@ -6449,6 +7452,9 @@
       <c r="C322" s="2" t="s">
         <v>563</v>
       </c>
+      <c r="E322" s="3">
+        <v>322</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
@@ -6460,6 +7466,9 @@
       <c r="C323" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E323" s="3">
+        <v>323</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
@@ -6471,6 +7480,9 @@
       <c r="C324" s="2" t="s">
         <v>567</v>
       </c>
+      <c r="E324" s="3">
+        <v>324</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
@@ -6482,6 +7494,9 @@
       <c r="C325" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="E325" s="3">
+        <v>325</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
@@ -6493,6 +7508,9 @@
       <c r="C326" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E326" s="3">
+        <v>326</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
@@ -6504,6 +7522,9 @@
       <c r="C327" s="2" t="s">
         <v>572</v>
       </c>
+      <c r="E327" s="3">
+        <v>327</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
@@ -6515,6 +7536,9 @@
       <c r="C328" s="2" t="s">
         <v>575</v>
       </c>
+      <c r="E328" s="3">
+        <v>328</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
@@ -6526,6 +7550,9 @@
       <c r="C329" s="2" t="s">
         <v>575</v>
       </c>
+      <c r="E329" s="3">
+        <v>329</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
@@ -6537,6 +7564,9 @@
       <c r="C330" s="2" t="s">
         <v>579</v>
       </c>
+      <c r="E330" s="3">
+        <v>330</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
@@ -6548,6 +7578,9 @@
       <c r="C331" s="2" t="s">
         <v>575</v>
       </c>
+      <c r="E331" s="3">
+        <v>331</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
@@ -6559,6 +7592,9 @@
       <c r="C332" s="2" t="s">
         <v>583</v>
       </c>
+      <c r="E332" s="3">
+        <v>332</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
@@ -6570,6 +7606,9 @@
       <c r="C333" s="2" t="s">
         <v>586</v>
       </c>
+      <c r="E333" s="3">
+        <v>333</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
@@ -6581,6 +7620,9 @@
       <c r="C334" s="2" t="s">
         <v>589</v>
       </c>
+      <c r="E334" s="3">
+        <v>334</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
@@ -6592,6 +7634,9 @@
       <c r="C335" s="2" t="s">
         <v>592</v>
       </c>
+      <c r="E335" s="3">
+        <v>335</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
@@ -6603,6 +7648,9 @@
       <c r="C336" s="2" t="s">
         <v>586</v>
       </c>
+      <c r="E336" s="3">
+        <v>336</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
@@ -6614,6 +7662,9 @@
       <c r="C337" s="2" t="s">
         <v>596</v>
       </c>
+      <c r="E337" s="3">
+        <v>337</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
@@ -6625,6 +7676,9 @@
       <c r="C338" s="2" t="s">
         <v>586</v>
       </c>
+      <c r="E338" s="3">
+        <v>338</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
@@ -6636,6 +7690,9 @@
       <c r="C339" s="2" t="s">
         <v>600</v>
       </c>
+      <c r="E339" s="3">
+        <v>339</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
@@ -6647,6 +7704,9 @@
       <c r="C340" s="2" t="s">
         <v>592</v>
       </c>
+      <c r="E340" s="3">
+        <v>340</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
@@ -6658,6 +7718,9 @@
       <c r="C341" s="2" t="s">
         <v>586</v>
       </c>
+      <c r="E341" s="3">
+        <v>341</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
@@ -6669,6 +7732,9 @@
       <c r="C342" s="2" t="s">
         <v>605</v>
       </c>
+      <c r="E342" s="3">
+        <v>342</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
@@ -6680,6 +7746,9 @@
       <c r="C343" s="2" t="s">
         <v>586</v>
       </c>
+      <c r="E343" s="3">
+        <v>343</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
@@ -6691,6 +7760,9 @@
       <c r="C344" s="2" t="s">
         <v>609</v>
       </c>
+      <c r="E344" s="3">
+        <v>344</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
@@ -6702,6 +7774,9 @@
       <c r="C345" s="2" t="s">
         <v>592</v>
       </c>
+      <c r="E345" s="3">
+        <v>345</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
@@ -6713,6 +7788,9 @@
       <c r="C346" s="2" t="s">
         <v>586</v>
       </c>
+      <c r="E346" s="3">
+        <v>346</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
@@ -6724,6 +7802,9 @@
       <c r="C347" s="2" t="s">
         <v>614</v>
       </c>
+      <c r="E347" s="3">
+        <v>347</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
@@ -6735,6 +7816,9 @@
       <c r="C348" s="2" t="s">
         <v>617</v>
       </c>
+      <c r="E348" s="3">
+        <v>348</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
@@ -6746,6 +7830,9 @@
       <c r="C349" s="2" t="s">
         <v>620</v>
       </c>
+      <c r="E349" s="3">
+        <v>349</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
@@ -6757,6 +7844,9 @@
       <c r="C350" s="2" t="s">
         <v>623</v>
       </c>
+      <c r="E350" s="3">
+        <v>350</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
@@ -6768,6 +7858,9 @@
       <c r="C351" s="2" t="s">
         <v>626</v>
       </c>
+      <c r="E351" s="3">
+        <v>351</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
@@ -6779,6 +7872,9 @@
       <c r="C352" s="2" t="s">
         <v>629</v>
       </c>
+      <c r="E352" s="3">
+        <v>352</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
@@ -6790,6 +7886,9 @@
       <c r="C353" s="2" t="s">
         <v>632</v>
       </c>
+      <c r="E353" s="3">
+        <v>353</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
@@ -6801,6 +7900,9 @@
       <c r="C354" s="2" t="s">
         <v>635</v>
       </c>
+      <c r="E354" s="3">
+        <v>354</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
@@ -6812,6 +7914,9 @@
       <c r="C355" s="2" t="s">
         <v>638</v>
       </c>
+      <c r="E355" s="3">
+        <v>355</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
@@ -6823,6 +7928,9 @@
       <c r="C356" s="2" t="s">
         <v>632</v>
       </c>
+      <c r="E356" s="3">
+        <v>356</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
@@ -6834,6 +7942,9 @@
       <c r="C357" s="2" t="s">
         <v>629</v>
       </c>
+      <c r="E357" s="3">
+        <v>357</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
@@ -6845,6 +7956,9 @@
       <c r="C358" s="2" t="s">
         <v>632</v>
       </c>
+      <c r="E358" s="3">
+        <v>358</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
@@ -6856,6 +7970,9 @@
       <c r="C359" s="2" t="s">
         <v>644</v>
       </c>
+      <c r="E359" s="3">
+        <v>359</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
@@ -6867,6 +7984,9 @@
       <c r="C360" s="2" t="s">
         <v>638</v>
       </c>
+      <c r="E360" s="3">
+        <v>360</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
@@ -6878,6 +7998,9 @@
       <c r="C361" s="2" t="s">
         <v>632</v>
       </c>
+      <c r="E361" s="3">
+        <v>361</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
@@ -6889,6 +8012,9 @@
       <c r="C362" s="2" t="s">
         <v>629</v>
       </c>
+      <c r="E362" s="3">
+        <v>362</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
@@ -6900,6 +8026,9 @@
       <c r="C363" s="2" t="s">
         <v>632</v>
       </c>
+      <c r="E363" s="3">
+        <v>363</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
@@ -6911,6 +8040,9 @@
       <c r="C364" s="2" t="s">
         <v>651</v>
       </c>
+      <c r="E364" s="3">
+        <v>364</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
@@ -6922,6 +8054,9 @@
       <c r="C365" s="2" t="s">
         <v>638</v>
       </c>
+      <c r="E365" s="3">
+        <v>365</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
@@ -6933,6 +8068,9 @@
       <c r="C366" s="2" t="s">
         <v>632</v>
       </c>
+      <c r="E366" s="3">
+        <v>366</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
@@ -6944,6 +8082,9 @@
       <c r="C367" s="2" t="s">
         <v>656</v>
       </c>
+      <c r="E367" s="3">
+        <v>367</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
@@ -6955,6 +8096,9 @@
       <c r="C368" s="2" t="s">
         <v>659</v>
       </c>
+      <c r="E368" s="3">
+        <v>368</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
@@ -6966,6 +8110,9 @@
       <c r="C369" s="2" t="s">
         <v>662</v>
       </c>
+      <c r="E369" s="3">
+        <v>369</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
@@ -6977,6 +8124,9 @@
       <c r="C370" s="2" t="s">
         <v>665</v>
       </c>
+      <c r="E370" s="3">
+        <v>370</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
@@ -6988,6 +8138,9 @@
       <c r="C371" s="2" t="s">
         <v>659</v>
       </c>
+      <c r="E371" s="3">
+        <v>371</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
@@ -6999,6 +8152,9 @@
       <c r="C372" s="2" t="s">
         <v>669</v>
       </c>
+      <c r="E372" s="3">
+        <v>372</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
@@ -7010,6 +8166,9 @@
       <c r="C373" s="2" t="s">
         <v>659</v>
       </c>
+      <c r="E373" s="3">
+        <v>373</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
@@ -7021,6 +8180,9 @@
       <c r="C374" s="2" t="s">
         <v>673</v>
       </c>
+      <c r="E374" s="3">
+        <v>374</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
@@ -7032,6 +8194,9 @@
       <c r="C375" s="2" t="s">
         <v>665</v>
       </c>
+      <c r="E375" s="3">
+        <v>375</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
@@ -7043,6 +8208,9 @@
       <c r="C376" s="2" t="s">
         <v>659</v>
       </c>
+      <c r="E376" s="3">
+        <v>376</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
@@ -7054,6 +8222,9 @@
       <c r="C377" s="2" t="s">
         <v>678</v>
       </c>
+      <c r="E377" s="3">
+        <v>377</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
@@ -7065,6 +8236,9 @@
       <c r="C378" s="2" t="s">
         <v>681</v>
       </c>
+      <c r="E378" s="3">
+        <v>378</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
@@ -7076,6 +8250,9 @@
       <c r="C379" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="E379" s="3">
+        <v>379</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
@@ -7087,6 +8264,9 @@
       <c r="C380" s="2" t="s">
         <v>681</v>
       </c>
+      <c r="E380" s="3">
+        <v>380</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
@@ -7098,6 +8278,9 @@
       <c r="C381" s="2" t="s">
         <v>686</v>
       </c>
+      <c r="E381" s="3">
+        <v>381</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
@@ -7109,6 +8292,9 @@
       <c r="C382" s="2" t="s">
         <v>689</v>
       </c>
+      <c r="E382" s="3">
+        <v>382</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
@@ -7120,6 +8306,9 @@
       <c r="C383" s="2" t="s">
         <v>681</v>
       </c>
+      <c r="E383" s="3">
+        <v>383</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
@@ -7131,6 +8320,9 @@
       <c r="C384" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="E384" s="3">
+        <v>384</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
@@ -7142,6 +8334,9 @@
       <c r="C385" s="2" t="s">
         <v>681</v>
       </c>
+      <c r="E385" s="3">
+        <v>385</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
@@ -7153,6 +8348,9 @@
       <c r="C386" s="2" t="s">
         <v>695</v>
       </c>
+      <c r="E386" s="3">
+        <v>386</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
@@ -7164,6 +8362,9 @@
       <c r="C387" s="2" t="s">
         <v>698</v>
       </c>
+      <c r="E387" s="3">
+        <v>387</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
@@ -7175,6 +8376,9 @@
       <c r="C388" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="E388" s="3">
+        <v>388</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
@@ -7186,6 +8390,9 @@
       <c r="C389" s="2" t="s">
         <v>702</v>
       </c>
+      <c r="E389" s="3">
+        <v>389</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
@@ -7197,6 +8404,9 @@
       <c r="C390" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="E390" s="3">
+        <v>390</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
@@ -7208,6 +8418,9 @@
       <c r="C391" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="E391" s="3">
+        <v>391</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
@@ -7219,6 +8432,9 @@
       <c r="C392" s="2" t="s">
         <v>698</v>
       </c>
+      <c r="E392" s="3">
+        <v>392</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
@@ -7230,6 +8446,9 @@
       <c r="C393" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="E393" s="3">
+        <v>393</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
@@ -7241,6 +8460,9 @@
       <c r="C394" s="2" t="s">
         <v>709</v>
       </c>
+      <c r="E394" s="3">
+        <v>394</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
@@ -7252,6 +8474,9 @@
       <c r="C395" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="E395" s="3">
+        <v>395</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
@@ -7263,6 +8488,9 @@
       <c r="C396" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="E396" s="3">
+        <v>396</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
@@ -7274,6 +8502,9 @@
       <c r="C397" s="2" t="s">
         <v>714</v>
       </c>
+      <c r="E397" s="3">
+        <v>397</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
@@ -7285,6 +8516,9 @@
       <c r="C398" s="2" t="s">
         <v>717</v>
       </c>
+      <c r="E398" s="3">
+        <v>398</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
@@ -7296,6 +8530,9 @@
       <c r="C399" s="2" t="s">
         <v>720</v>
       </c>
+      <c r="E399" s="3">
+        <v>399</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
@@ -7307,6 +8544,9 @@
       <c r="C400" s="2" t="s">
         <v>723</v>
       </c>
+      <c r="E400" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
@@ -7318,6 +8558,9 @@
       <c r="C401" s="2" t="s">
         <v>717</v>
       </c>
+      <c r="E401" s="3">
+        <v>401</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
@@ -7329,6 +8572,9 @@
       <c r="C402" s="2" t="s">
         <v>727</v>
       </c>
+      <c r="E402" s="3">
+        <v>402</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
@@ -7340,6 +8586,9 @@
       <c r="C403" s="2" t="s">
         <v>717</v>
       </c>
+      <c r="E403" s="3">
+        <v>403</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
@@ -7351,6 +8600,9 @@
       <c r="C404" s="2" t="s">
         <v>731</v>
       </c>
+      <c r="E404" s="3">
+        <v>404</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
@@ -7362,6 +8614,9 @@
       <c r="C405" s="2" t="s">
         <v>734</v>
       </c>
+      <c r="E405" s="3">
+        <v>405</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
@@ -7373,6 +8628,9 @@
       <c r="C406" s="2" t="s">
         <v>717</v>
       </c>
+      <c r="E406" s="3">
+        <v>406</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
@@ -7384,6 +8642,9 @@
       <c r="C407" s="2" t="s">
         <v>738</v>
       </c>
+      <c r="E407" s="3">
+        <v>407</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
@@ -7395,6 +8656,9 @@
       <c r="C408" s="2" t="s">
         <v>741</v>
       </c>
+      <c r="E408" s="3">
+        <v>408</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
@@ -7406,6 +8670,9 @@
       <c r="C409" s="2" t="s">
         <v>744</v>
       </c>
+      <c r="E409" s="3">
+        <v>409</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
@@ -7417,6 +8684,9 @@
       <c r="C410" s="2" t="s">
         <v>747</v>
       </c>
+      <c r="E410" s="3">
+        <v>410</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
@@ -7428,6 +8698,9 @@
       <c r="C411" s="2" t="s">
         <v>741</v>
       </c>
+      <c r="E411" s="3">
+        <v>411</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
@@ -7439,6 +8712,9 @@
       <c r="C412" s="2" t="s">
         <v>751</v>
       </c>
+      <c r="E412" s="3">
+        <v>412</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
@@ -7450,6 +8726,9 @@
       <c r="C413" s="2" t="s">
         <v>741</v>
       </c>
+      <c r="E413" s="3">
+        <v>413</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
@@ -7461,6 +8740,9 @@
       <c r="C414" s="2" t="s">
         <v>755</v>
       </c>
+      <c r="E414" s="3">
+        <v>414</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
@@ -7472,6 +8754,9 @@
       <c r="C415" s="2" t="s">
         <v>758</v>
       </c>
+      <c r="E415" s="3">
+        <v>415</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
@@ -7483,6 +8768,9 @@
       <c r="C416" s="2" t="s">
         <v>741</v>
       </c>
+      <c r="E416" s="3">
+        <v>416</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
@@ -7494,6 +8782,9 @@
       <c r="C417" s="2" t="s">
         <v>762</v>
       </c>
+      <c r="E417" s="3">
+        <v>417</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
@@ -7505,6 +8796,9 @@
       <c r="C418" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E418" s="3">
+        <v>418</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
@@ -7516,6 +8810,9 @@
       <c r="C419" s="2" t="s">
         <v>766</v>
       </c>
+      <c r="E419" s="3">
+        <v>419</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
@@ -7527,6 +8824,9 @@
       <c r="C420" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E420" s="3">
+        <v>420</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
@@ -7538,6 +8838,9 @@
       <c r="C421" s="2" t="s">
         <v>769</v>
       </c>
+      <c r="E421" s="3">
+        <v>421</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
@@ -7549,6 +8852,9 @@
       <c r="C422" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E422" s="3">
+        <v>422</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
@@ -7560,6 +8866,9 @@
       <c r="C423" s="2" t="s">
         <v>772</v>
       </c>
+      <c r="E423" s="3">
+        <v>423</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
@@ -7571,6 +8880,9 @@
       <c r="C424" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E424" s="3">
+        <v>424</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
@@ -7582,6 +8894,9 @@
       <c r="C425" s="2" t="s">
         <v>775</v>
       </c>
+      <c r="E425" s="3">
+        <v>425</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
@@ -7593,6 +8908,9 @@
       <c r="C426" s="2" t="s">
         <v>778</v>
       </c>
+      <c r="E426" s="3">
+        <v>426</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
@@ -7604,6 +8922,9 @@
       <c r="C427" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E427" s="3">
+        <v>427</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
@@ -7615,6 +8936,9 @@
       <c r="C428" s="2" t="s">
         <v>781</v>
       </c>
+      <c r="E428" s="3">
+        <v>428</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
@@ -7626,6 +8950,9 @@
       <c r="C429" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E429" s="3">
+        <v>429</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
@@ -7637,6 +8964,9 @@
       <c r="C430" s="2" t="s">
         <v>784</v>
       </c>
+      <c r="E430" s="3">
+        <v>430</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
@@ -7648,6 +8978,9 @@
       <c r="C431" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E431" s="3">
+        <v>431</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
@@ -7659,6 +8992,9 @@
       <c r="C432" s="2" t="s">
         <v>787</v>
       </c>
+      <c r="E432" s="3">
+        <v>432</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
@@ -7670,6 +9006,9 @@
       <c r="C433" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E433" s="3">
+        <v>433</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
@@ -7681,6 +9020,9 @@
       <c r="C434" s="2" t="s">
         <v>790</v>
       </c>
+      <c r="E434" s="3">
+        <v>434</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
@@ -7692,6 +9034,9 @@
       <c r="C435" s="2" t="s">
         <v>793</v>
       </c>
+      <c r="E435" s="3">
+        <v>435</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
@@ -7703,6 +9048,9 @@
       <c r="C436" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E436" s="3">
+        <v>436</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
@@ -7714,6 +9062,9 @@
       <c r="C437" s="2" t="s">
         <v>796</v>
       </c>
+      <c r="E437" s="3">
+        <v>437</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
@@ -7725,6 +9076,9 @@
       <c r="C438" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E438" s="3">
+        <v>438</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
@@ -7736,6 +9090,9 @@
       <c r="C439" s="2" t="s">
         <v>799</v>
       </c>
+      <c r="E439" s="3">
+        <v>439</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
@@ -7747,6 +9104,9 @@
       <c r="C440" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E440" s="3">
+        <v>440</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
@@ -7758,6 +9118,9 @@
       <c r="C441" s="2" t="s">
         <v>802</v>
       </c>
+      <c r="E441" s="3">
+        <v>441</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
@@ -7769,6 +9132,9 @@
       <c r="C442" s="2" t="s">
         <v>764</v>
       </c>
+      <c r="E442" s="3">
+        <v>442</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
@@ -7780,6 +9146,9 @@
       <c r="C443" s="2" t="s">
         <v>805</v>
       </c>
+      <c r="E443" s="3">
+        <v>443</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
@@ -7791,6 +9160,9 @@
       <c r="C444" s="2" t="s">
         <v>808</v>
       </c>
+      <c r="E444" s="3">
+        <v>444</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
@@ -7802,6 +9174,9 @@
       <c r="C445" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E445" s="3">
+        <v>445</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
@@ -7813,6 +9188,9 @@
       <c r="C446" s="2" t="s">
         <v>522</v>
       </c>
+      <c r="E446" s="3">
+        <v>446</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
@@ -7824,6 +9202,9 @@
       <c r="C447" s="2" t="s">
         <v>813</v>
       </c>
+      <c r="E447" s="3">
+        <v>447</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
@@ -7835,6 +9216,9 @@
       <c r="C448" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E448" s="3">
+        <v>448</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
@@ -7846,6 +9230,9 @@
       <c r="C449" s="2" t="s">
         <v>522</v>
       </c>
+      <c r="E449" s="3">
+        <v>449</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
@@ -7857,6 +9244,9 @@
       <c r="C450" s="2" t="s">
         <v>818</v>
       </c>
+      <c r="E450" s="3">
+        <v>450</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
@@ -7868,6 +9258,9 @@
       <c r="C451" s="2" t="s">
         <v>717</v>
       </c>
+      <c r="E451" s="3">
+        <v>451</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
@@ -7879,6 +9272,9 @@
       <c r="C452" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="E452" s="3">
+        <v>452</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
@@ -7890,6 +9286,9 @@
       <c r="C453" s="2" t="s">
         <v>824</v>
       </c>
+      <c r="E453" s="3">
+        <v>453</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
@@ -7901,6 +9300,9 @@
       <c r="C454" s="2" t="s">
         <v>827</v>
       </c>
+      <c r="E454" s="3">
+        <v>454</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
@@ -7912,6 +9314,9 @@
       <c r="C455" s="2" t="s">
         <v>818</v>
       </c>
+      <c r="E455" s="3">
+        <v>455</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
@@ -7923,6 +9328,9 @@
       <c r="C456" s="2" t="s">
         <v>717</v>
       </c>
+      <c r="E456" s="3">
+        <v>456</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
@@ -7934,6 +9342,9 @@
       <c r="C457" s="2" t="s">
         <v>833</v>
       </c>
+      <c r="E457" s="3">
+        <v>457</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
@@ -7945,6 +9356,9 @@
       <c r="C458" s="2" t="s">
         <v>836</v>
       </c>
+      <c r="E458" s="3">
+        <v>458</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
@@ -7956,6 +9370,9 @@
       <c r="C459" s="2" t="s">
         <v>827</v>
       </c>
+      <c r="E459" s="3">
+        <v>459</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
@@ -7967,6 +9384,9 @@
       <c r="C460" s="2" t="s">
         <v>840</v>
       </c>
+      <c r="E460" s="3">
+        <v>460</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
@@ -7978,6 +9398,9 @@
       <c r="C461" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E461" s="3">
+        <v>461</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
@@ -7989,6 +9412,9 @@
       <c r="C462" s="2" t="s">
         <v>522</v>
       </c>
+      <c r="E462" s="3">
+        <v>462</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
@@ -8000,6 +9426,9 @@
       <c r="C463" s="2" t="s">
         <v>845</v>
       </c>
+      <c r="E463" s="3">
+        <v>463</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
@@ -8011,6 +9440,9 @@
       <c r="C464" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="E464" s="3">
+        <v>464</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
@@ -8021,6 +9453,43 @@
       </c>
       <c r="C465" s="2" t="s">
         <v>522</v>
+      </c>
+      <c r="E465" s="3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E466" s="3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E467" s="3">
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/Abilifier/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Abilifier/LocalizationDef.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Localization!$A$1:$E$467</definedName>
+  </definedNames>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="855">
   <si>
     <t>AbilityDefBPerfectAim.Description.Details</t>
   </si>
@@ -1552,7 +1555,7 @@
     <t>AbilityT5AI.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">PASSIVE: Remove one bar of stability damage when Reserving.  +1 to Initiative and Tactics Rolls.</t>
+    <t>PASSIVE: Remove one bar of stability damage when Reserving.  +1 to Initiative and Tactics Rolls.</t>
   </si>
   <si>
     <t>ПАССИВНО: при пропуске хода убирает 1 полоску нестабильности. +1 к броскам инициативы и тактики.</t>
@@ -1606,7 +1609,7 @@
     <t>AbilityT5Tactician.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">PASSIVE: +15% Max Sight/Sensor.  +1 to Initiative and Tactics Rolls.</t>
+    <t>PASSIVE: +15% Max Sight/Sensor.  +1 to Initiative and Tactics Rolls.</t>
   </si>
   <si>
     <t>ПАССИВНО: +15% макс. сенсоры/обзор. +1 к броскам инициативы и тактики.</t>
@@ -2585,7 +2588,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2597,17 +2599,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2622,21 +2619,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2925,20 +2926,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F467"/>
+  <dimension ref="A1:E467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="C438" sqref="C438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="77.7109375" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="77.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2990,11 +2991,11 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3004,11 +3005,11 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3018,11 +3019,11 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3032,11 +3033,11 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3046,11 +3047,11 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -3060,11 +3061,11 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -3074,11 +3075,11 @@
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -3088,25 +3089,25 @@
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -3116,11 +3117,11 @@
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -3130,11 +3131,11 @@
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -3144,11 +3145,11 @@
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -3158,11 +3159,11 @@
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -3172,11 +3173,11 @@
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -3186,11 +3187,11 @@
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -3200,11 +3201,11 @@
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -3214,11 +3215,11 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -3228,11 +3229,11 @@
       <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -3242,11 +3243,11 @@
       <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -3256,11 +3257,11 @@
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -3270,11 +3271,11 @@
       <c r="C24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -3284,11 +3285,11 @@
       <c r="C25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
@@ -3298,11 +3299,11 @@
       <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
@@ -3312,11 +3313,11 @@
       <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
@@ -3326,11 +3327,11 @@
       <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>68</v>
       </c>
@@ -3340,11 +3341,11 @@
       <c r="C29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>71</v>
       </c>
@@ -3354,11 +3355,11 @@
       <c r="C30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -3368,11 +3369,11 @@
       <c r="C31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -3382,11 +3383,11 @@
       <c r="C32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
@@ -3396,11 +3397,11 @@
       <c r="C33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -3410,11 +3411,11 @@
       <c r="C34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
@@ -3424,11 +3425,11 @@
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
@@ -3438,11 +3439,11 @@
       <c r="C36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -3452,11 +3453,11 @@
       <c r="C37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>88</v>
       </c>
@@ -3466,11 +3467,11 @@
       <c r="C38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
@@ -3480,11 +3481,11 @@
       <c r="C39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
@@ -3494,11 +3495,11 @@
       <c r="C40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>97</v>
       </c>
@@ -3508,11 +3509,11 @@
       <c r="C41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>100</v>
       </c>
@@ -3522,11 +3523,11 @@
       <c r="C42" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>103</v>
       </c>
@@ -3536,11 +3537,11 @@
       <c r="C43" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>106</v>
       </c>
@@ -3550,11 +3551,11 @@
       <c r="C44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
@@ -3564,11 +3565,11 @@
       <c r="C45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>112</v>
       </c>
@@ -3578,11 +3579,11 @@
       <c r="C46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>115</v>
       </c>
@@ -3592,11 +3593,11 @@
       <c r="C47" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>118</v>
       </c>
@@ -3606,11 +3607,11 @@
       <c r="C48" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>121</v>
       </c>
@@ -3620,11 +3621,11 @@
       <c r="C49" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
         <v>124</v>
       </c>
@@ -3634,25 +3635,25 @@
       <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
         <v>130</v>
       </c>
@@ -3662,25 +3663,25 @@
       <c r="C52" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>136</v>
       </c>
@@ -3690,11 +3691,11 @@
       <c r="C54" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>139</v>
       </c>
@@ -3704,11 +3705,11 @@
       <c r="C55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
         <v>142</v>
       </c>
@@ -3718,11 +3719,11 @@
       <c r="C56" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>145</v>
       </c>
@@ -3732,11 +3733,11 @@
       <c r="C57" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>148</v>
       </c>
@@ -3746,11 +3747,11 @@
       <c r="C58" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
         <v>151</v>
       </c>
@@ -3760,11 +3761,11 @@
       <c r="C59" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>154</v>
       </c>
@@ -3774,25 +3775,25 @@
       <c r="C60" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>160</v>
       </c>
@@ -3802,11 +3803,11 @@
       <c r="C62" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>162</v>
       </c>
@@ -3816,11 +3817,11 @@
       <c r="C63" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
         <v>165</v>
       </c>
@@ -3830,11 +3831,11 @@
       <c r="C64" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
         <v>168</v>
       </c>
@@ -3844,11 +3845,11 @@
       <c r="C65" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>169</v>
       </c>
@@ -3858,25 +3859,25 @@
       <c r="C66" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>171</v>
       </c>
@@ -3886,11 +3887,11 @@
       <c r="C68" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
         <v>173</v>
       </c>
@@ -3900,11 +3901,11 @@
       <c r="C69" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
         <v>176</v>
       </c>
@@ -3914,11 +3915,11 @@
       <c r="C70" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>179</v>
       </c>
@@ -3928,11 +3929,11 @@
       <c r="C71" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>182</v>
       </c>
@@ -3942,11 +3943,11 @@
       <c r="C72" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>185</v>
       </c>
@@ -3956,11 +3957,11 @@
       <c r="C73" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>188</v>
       </c>
@@ -3970,11 +3971,11 @@
       <c r="C74" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
         <v>191</v>
       </c>
@@ -3984,11 +3985,11 @@
       <c r="C75" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
         <v>194</v>
       </c>
@@ -3998,11 +3999,11 @@
       <c r="C76" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
         <v>197</v>
       </c>
@@ -4012,11 +4013,11 @@
       <c r="C77" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>198</v>
       </c>
@@ -4026,11 +4027,11 @@
       <c r="C78" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>201</v>
       </c>
@@ -4040,11 +4041,11 @@
       <c r="C79" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>204</v>
       </c>
@@ -4054,11 +4055,11 @@
       <c r="C80" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>207</v>
       </c>
@@ -4068,11 +4069,11 @@
       <c r="C81" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>210</v>
       </c>
@@ -4082,11 +4083,11 @@
       <c r="C82" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>213</v>
       </c>
@@ -4096,11 +4097,11 @@
       <c r="C83" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>216</v>
       </c>
@@ -4110,11 +4111,11 @@
       <c r="C84" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>219</v>
       </c>
@@ -4124,11 +4125,11 @@
       <c r="C85" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>221</v>
       </c>
@@ -4138,11 +4139,11 @@
       <c r="C86" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>224</v>
       </c>
@@ -4152,11 +4153,11 @@
       <c r="C87" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
         <v>227</v>
       </c>
@@ -4166,11 +4167,11 @@
       <c r="C88" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>228</v>
       </c>
@@ -4180,11 +4181,11 @@
       <c r="C89" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>229</v>
       </c>
@@ -4194,11 +4195,11 @@
       <c r="C90" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
         <v>230</v>
       </c>
@@ -4208,11 +4209,11 @@
       <c r="C91" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
         <v>231</v>
       </c>
@@ -4222,11 +4223,11 @@
       <c r="C92" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>232</v>
       </c>
@@ -4236,11 +4237,11 @@
       <c r="C93" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>233</v>
       </c>
@@ -4250,11 +4251,11 @@
       <c r="C94" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>236</v>
       </c>
@@ -4264,11 +4265,11 @@
       <c r="C95" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
         <v>239</v>
       </c>
@@ -4278,11 +4279,11 @@
       <c r="C96" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
         <v>242</v>
       </c>
@@ -4292,25 +4293,25 @@
       <c r="C97" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
         <v>248</v>
       </c>
@@ -4320,11 +4321,11 @@
       <c r="C99" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
         <v>249</v>
       </c>
@@ -4334,11 +4335,11 @@
       <c r="C100" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
         <v>250</v>
       </c>
@@ -4348,11 +4349,11 @@
       <c r="C101" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
         <v>251</v>
       </c>
@@ -4362,11 +4363,11 @@
       <c r="C102" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
         <v>254</v>
       </c>
@@ -4376,11 +4377,11 @@
       <c r="C103" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
         <v>257</v>
       </c>
@@ -4390,11 +4391,11 @@
       <c r="C104" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
         <v>260</v>
       </c>
@@ -4404,11 +4405,11 @@
       <c r="C105" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
         <v>263</v>
       </c>
@@ -4418,11 +4419,11 @@
       <c r="C106" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
         <v>264</v>
       </c>
@@ -4432,11 +4433,11 @@
       <c r="C107" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
         <v>265</v>
       </c>
@@ -4446,11 +4447,11 @@
       <c r="C108" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
         <v>266</v>
       </c>
@@ -4460,11 +4461,11 @@
       <c r="C109" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
         <v>267</v>
       </c>
@@ -4474,11 +4475,11 @@
       <c r="C110" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
         <v>270</v>
       </c>
@@ -4488,11 +4489,11 @@
       <c r="C111" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
         <v>271</v>
       </c>
@@ -4502,11 +4503,11 @@
       <c r="C112" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
         <v>272</v>
       </c>
@@ -4516,11 +4517,11 @@
       <c r="C113" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
         <v>273</v>
       </c>
@@ -4530,11 +4531,11 @@
       <c r="C114" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
         <v>276</v>
       </c>
@@ -4544,11 +4545,11 @@
       <c r="C115" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
         <v>279</v>
       </c>
@@ -4558,11 +4559,11 @@
       <c r="C116" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
         <v>280</v>
       </c>
@@ -4572,25 +4573,25 @@
       <c r="C117" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="118" s="3" customFormat="1">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:5">
+      <c r="A118" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
         <v>284</v>
       </c>
@@ -4600,11 +4601,11 @@
       <c r="C119" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
         <v>285</v>
       </c>
@@ -4614,11 +4615,11 @@
       <c r="C120" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
         <v>286</v>
       </c>
@@ -4628,11 +4629,11 @@
       <c r="C121" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
         <v>287</v>
       </c>
@@ -4642,11 +4643,11 @@
       <c r="C122" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
         <v>288</v>
       </c>
@@ -4656,11 +4657,11 @@
       <c r="C123" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
         <v>289</v>
       </c>
@@ -4670,11 +4671,11 @@
       <c r="C124" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
         <v>292</v>
       </c>
@@ -4684,11 +4685,11 @@
       <c r="C125" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
         <v>295</v>
       </c>
@@ -4698,11 +4699,11 @@
       <c r="C126" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
         <v>296</v>
       </c>
@@ -4712,11 +4713,11 @@
       <c r="C127" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
         <v>297</v>
       </c>
@@ -4726,11 +4727,11 @@
       <c r="C128" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
         <v>298</v>
       </c>
@@ -4740,11 +4741,11 @@
       <c r="C129" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
         <v>299</v>
       </c>
@@ -4754,11 +4755,11 @@
       <c r="C130" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
         <v>300</v>
       </c>
@@ -4768,11 +4769,11 @@
       <c r="C131" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
         <v>301</v>
       </c>
@@ -4782,11 +4783,11 @@
       <c r="C132" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
         <v>302</v>
       </c>
@@ -4796,11 +4797,11 @@
       <c r="C133" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
         <v>303</v>
       </c>
@@ -4810,11 +4811,11 @@
       <c r="C134" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
         <v>304</v>
       </c>
@@ -4824,25 +4825,25 @@
       <c r="C135" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5">
       <c r="A136" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
         <v>306</v>
       </c>
@@ -4852,11 +4853,11 @@
       <c r="C137" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
         <v>307</v>
       </c>
@@ -4866,11 +4867,11 @@
       <c r="C138" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
         <v>308</v>
       </c>
@@ -4880,11 +4881,11 @@
       <c r="C139" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
         <v>309</v>
       </c>
@@ -4894,11 +4895,11 @@
       <c r="C140" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
         <v>312</v>
       </c>
@@ -4908,11 +4909,11 @@
       <c r="C141" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
         <v>315</v>
       </c>
@@ -4922,91 +4923,81 @@
       <c r="C142" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="2">
         <v>142</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="1:5">
+      <c r="A143" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3">
+      <c r="E143" s="2">
         <v>143</v>
       </c>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="3" t="s">
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3">
+      <c r="E144" s="2">
         <v>144</v>
       </c>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="3" t="s">
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3">
+      <c r="E145" s="2">
         <v>145</v>
       </c>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" s="4" customFormat="1">
-      <c r="A146" s="3" t="s">
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3">
+      <c r="E146" s="2">
         <v>146</v>
       </c>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="3" t="s">
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3">
+      <c r="E147" s="2">
         <v>147</v>
       </c>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148">
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
         <v>323</v>
       </c>
@@ -5016,11 +5007,11 @@
       <c r="C148" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="2">
         <v>148</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
         <v>324</v>
       </c>
@@ -5030,11 +5021,11 @@
       <c r="C149" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
         <v>325</v>
       </c>
@@ -5044,11 +5035,11 @@
       <c r="C150" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
         <v>326</v>
       </c>
@@ -5058,25 +5049,25 @@
       <c r="C151" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
         <v>328</v>
       </c>
@@ -5086,11 +5077,11 @@
       <c r="C153" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="2">
         <v>153</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
         <v>329</v>
       </c>
@@ -5100,11 +5091,11 @@
       <c r="C154" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
         <v>332</v>
       </c>
@@ -5114,11 +5105,11 @@
       <c r="C155" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="2">
         <v>155</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
         <v>335</v>
       </c>
@@ -5128,11 +5119,11 @@
       <c r="C156" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
         <v>338</v>
       </c>
@@ -5142,11 +5133,11 @@
       <c r="C157" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="2">
         <v>157</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
         <v>341</v>
       </c>
@@ -5156,11 +5147,11 @@
       <c r="C158" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="2">
         <v>158</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
         <v>342</v>
       </c>
@@ -5170,11 +5161,11 @@
       <c r="C159" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
         <v>343</v>
       </c>
@@ -5184,11 +5175,11 @@
       <c r="C160" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
         <v>344</v>
       </c>
@@ -5198,11 +5189,11 @@
       <c r="C161" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161" s="2">
         <v>161</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
         <v>345</v>
       </c>
@@ -5212,11 +5203,11 @@
       <c r="C162" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162" s="2">
         <v>162</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
         <v>346</v>
       </c>
@@ -5226,11 +5217,11 @@
       <c r="C163" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
         <v>347</v>
       </c>
@@ -5240,11 +5231,11 @@
       <c r="C164" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="2">
         <v>164</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
         <v>348</v>
       </c>
@@ -5254,11 +5245,11 @@
       <c r="C165" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="2">
         <v>165</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
         <v>349</v>
       </c>
@@ -5268,11 +5259,11 @@
       <c r="C166" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
         <v>352</v>
       </c>
@@ -5282,11 +5273,11 @@
       <c r="C167" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
         <v>354</v>
       </c>
@@ -5296,11 +5287,11 @@
       <c r="C168" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168" s="2">
         <v>168</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
         <v>355</v>
       </c>
@@ -5310,11 +5301,11 @@
       <c r="C169" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169" s="2">
         <v>169</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
         <v>357</v>
       </c>
@@ -5324,11 +5315,11 @@
       <c r="C170" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170" s="2">
         <v>170</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
         <v>358</v>
       </c>
@@ -5338,11 +5329,11 @@
       <c r="C171" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171" s="2">
         <v>171</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
         <v>360</v>
       </c>
@@ -5352,11 +5343,11 @@
       <c r="C172" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="2">
         <v>172</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
         <v>361</v>
       </c>
@@ -5366,11 +5357,11 @@
       <c r="C173" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173" s="2">
         <v>173</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
         <v>363</v>
       </c>
@@ -5380,11 +5371,11 @@
       <c r="C174" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="2">
         <v>174</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5">
       <c r="A175" s="2" t="s">
         <v>364</v>
       </c>
@@ -5394,11 +5385,11 @@
       <c r="C175" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="2">
         <v>175</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
         <v>366</v>
       </c>
@@ -5408,11 +5399,11 @@
       <c r="C176" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
         <v>367</v>
       </c>
@@ -5422,11 +5413,11 @@
       <c r="C177" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="2">
         <v>177</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
         <v>369</v>
       </c>
@@ -5436,11 +5427,11 @@
       <c r="C178" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="2">
         <v>178</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
         <v>370</v>
       </c>
@@ -5450,11 +5441,11 @@
       <c r="C179" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179" s="2">
         <v>179</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
         <v>372</v>
       </c>
@@ -5464,11 +5455,11 @@
       <c r="C180" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E180" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
         <v>373</v>
       </c>
@@ -5478,11 +5469,11 @@
       <c r="C181" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181" s="2">
         <v>181</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
         <v>375</v>
       </c>
@@ -5492,11 +5483,11 @@
       <c r="C182" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
         <v>376</v>
       </c>
@@ -5506,11 +5497,11 @@
       <c r="C183" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183" s="2">
         <v>183</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
         <v>378</v>
       </c>
@@ -5520,11 +5511,11 @@
       <c r="C184" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184" s="2">
         <v>184</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
         <v>379</v>
       </c>
@@ -5534,11 +5525,11 @@
       <c r="C185" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
         <v>381</v>
       </c>
@@ -5548,11 +5539,11 @@
       <c r="C186" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
         <v>382</v>
       </c>
@@ -5562,11 +5553,11 @@
       <c r="C187" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="2">
         <v>187</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
         <v>384</v>
       </c>
@@ -5576,11 +5567,11 @@
       <c r="C188" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188" s="2">
         <v>188</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
         <v>385</v>
       </c>
@@ -5590,11 +5581,11 @@
       <c r="C189" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189" s="2">
         <v>189</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
         <v>387</v>
       </c>
@@ -5604,11 +5595,11 @@
       <c r="C190" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
         <v>388</v>
       </c>
@@ -5618,11 +5609,11 @@
       <c r="C191" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="2">
         <v>191</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
         <v>390</v>
       </c>
@@ -5632,11 +5623,11 @@
       <c r="C192" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192" s="2">
         <v>192</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
         <v>391</v>
       </c>
@@ -5646,11 +5637,11 @@
       <c r="C193" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="2">
         <v>193</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
         <v>393</v>
       </c>
@@ -5660,11 +5651,11 @@
       <c r="C194" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="2">
         <v>194</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
         <v>394</v>
       </c>
@@ -5674,11 +5665,11 @@
       <c r="C195" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195" s="2">
         <v>195</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5">
       <c r="A196" s="2" t="s">
         <v>396</v>
       </c>
@@ -5688,11 +5679,11 @@
       <c r="C196" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="2">
         <v>196</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
         <v>397</v>
       </c>
@@ -5702,11 +5693,11 @@
       <c r="C197" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="2">
         <v>197</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
         <v>399</v>
       </c>
@@ -5716,11 +5707,11 @@
       <c r="C198" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198" s="2">
         <v>198</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
         <v>400</v>
       </c>
@@ -5730,11 +5721,11 @@
       <c r="C199" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="2">
         <v>199</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
         <v>402</v>
       </c>
@@ -5744,11 +5735,11 @@
       <c r="C200" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:5">
       <c r="A201" s="2" t="s">
         <v>403</v>
       </c>
@@ -5758,11 +5749,11 @@
       <c r="C201" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
         <v>404</v>
       </c>
@@ -5772,11 +5763,11 @@
       <c r="C202" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E202" s="2">
         <v>202</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
         <v>407</v>
       </c>
@@ -5786,11 +5777,11 @@
       <c r="C203" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203" s="2">
         <v>203</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5">
       <c r="A204" s="2" t="s">
         <v>408</v>
       </c>
@@ -5800,11 +5791,11 @@
       <c r="C204" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E204" s="3">
+      <c r="E204" s="2">
         <v>204</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
         <v>409</v>
       </c>
@@ -5814,11 +5805,11 @@
       <c r="C205" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205" s="2">
         <v>205</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:5">
       <c r="A206" s="2" t="s">
         <v>410</v>
       </c>
@@ -5828,11 +5819,11 @@
       <c r="C206" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206" s="2">
         <v>206</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:5">
       <c r="A207" s="2" t="s">
         <v>411</v>
       </c>
@@ -5842,11 +5833,11 @@
       <c r="C207" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E207" s="3">
+      <c r="E207" s="2">
         <v>207</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
         <v>412</v>
       </c>
@@ -5856,11 +5847,11 @@
       <c r="C208" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E208" s="3">
+      <c r="E208" s="2">
         <v>208</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:5">
       <c r="A209" s="2" t="s">
         <v>413</v>
       </c>
@@ -5870,11 +5861,11 @@
       <c r="C209" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E209" s="3">
+      <c r="E209" s="2">
         <v>209</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:5">
       <c r="A210" s="2" t="s">
         <v>414</v>
       </c>
@@ -5884,11 +5875,11 @@
       <c r="C210" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E210" s="3">
+      <c r="E210" s="2">
         <v>210</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:5">
       <c r="A211" s="2" t="s">
         <v>415</v>
       </c>
@@ -5898,11 +5889,11 @@
       <c r="C211" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E211" s="2">
         <v>211</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
         <v>416</v>
       </c>
@@ -5912,11 +5903,11 @@
       <c r="C212" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E212" s="3">
+      <c r="E212" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:5">
       <c r="A213" s="2" t="s">
         <v>417</v>
       </c>
@@ -5926,11 +5917,11 @@
       <c r="C213" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E213" s="2">
         <v>213</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:5">
       <c r="A214" s="2" t="s">
         <v>418</v>
       </c>
@@ -5940,11 +5931,11 @@
       <c r="C214" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E214" s="2">
         <v>214</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
         <v>419</v>
       </c>
@@ -5954,11 +5945,11 @@
       <c r="C215" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E215" s="3">
+      <c r="E215" s="2">
         <v>215</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:5">
       <c r="A216" s="2" t="s">
         <v>420</v>
       </c>
@@ -5968,11 +5959,11 @@
       <c r="C216" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E216" s="2">
         <v>216</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:5">
       <c r="A217" s="2" t="s">
         <v>421</v>
       </c>
@@ -5982,11 +5973,11 @@
       <c r="C217" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E217" s="3">
+      <c r="E217" s="2">
         <v>217</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
         <v>422</v>
       </c>
@@ -5996,11 +5987,11 @@
       <c r="C218" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E218" s="3">
+      <c r="E218" s="2">
         <v>218</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:5">
       <c r="A219" s="2" t="s">
         <v>423</v>
       </c>
@@ -6010,11 +6001,11 @@
       <c r="C219" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E219" s="3">
+      <c r="E219" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:5">
       <c r="A220" s="2" t="s">
         <v>424</v>
       </c>
@@ -6024,11 +6015,11 @@
       <c r="C220" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E220" s="3">
+      <c r="E220" s="2">
         <v>220</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
         <v>425</v>
       </c>
@@ -6038,11 +6029,11 @@
       <c r="C221" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E221" s="3">
+      <c r="E221" s="2">
         <v>221</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:5">
       <c r="A222" s="2" t="s">
         <v>426</v>
       </c>
@@ -6052,11 +6043,11 @@
       <c r="C222" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E222" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:5">
       <c r="A223" s="2" t="s">
         <v>427</v>
       </c>
@@ -6066,11 +6057,11 @@
       <c r="C223" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E223" s="3">
+      <c r="E223" s="2">
         <v>223</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
         <v>428</v>
       </c>
@@ -6080,11 +6071,11 @@
       <c r="C224" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E224" s="3">
+      <c r="E224" s="2">
         <v>224</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:5">
       <c r="A225" s="2" t="s">
         <v>429</v>
       </c>
@@ -6094,11 +6085,11 @@
       <c r="C225" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E225" s="3">
+      <c r="E225" s="2">
         <v>225</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
         <v>430</v>
       </c>
@@ -6108,11 +6099,11 @@
       <c r="C226" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E226" s="3">
+      <c r="E226" s="2">
         <v>226</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:5">
       <c r="A227" s="2" t="s">
         <v>431</v>
       </c>
@@ -6122,11 +6113,11 @@
       <c r="C227" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E227" s="3">
+      <c r="E227" s="2">
         <v>227</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
         <v>432</v>
       </c>
@@ -6136,11 +6127,11 @@
       <c r="C228" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E228" s="3">
+      <c r="E228" s="2">
         <v>228</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
         <v>433</v>
       </c>
@@ -6150,11 +6141,11 @@
       <c r="C229" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E229" s="3">
+      <c r="E229" s="2">
         <v>229</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
         <v>434</v>
       </c>
@@ -6164,11 +6155,11 @@
       <c r="C230" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E230" s="3">
+      <c r="E230" s="2">
         <v>230</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
         <v>435</v>
       </c>
@@ -6178,11 +6169,11 @@
       <c r="C231" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E231" s="3">
+      <c r="E231" s="2">
         <v>231</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
         <v>436</v>
       </c>
@@ -6192,11 +6183,11 @@
       <c r="C232" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E232" s="3">
+      <c r="E232" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
         <v>437</v>
       </c>
@@ -6206,11 +6197,11 @@
       <c r="C233" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E233" s="3">
+      <c r="E233" s="2">
         <v>233</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
         <v>438</v>
       </c>
@@ -6220,11 +6211,11 @@
       <c r="C234" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E234" s="3">
+      <c r="E234" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
         <v>439</v>
       </c>
@@ -6234,11 +6225,11 @@
       <c r="C235" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E235" s="3">
+      <c r="E235" s="2">
         <v>235</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
         <v>440</v>
       </c>
@@ -6248,11 +6239,11 @@
       <c r="C236" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E236" s="3">
+      <c r="E236" s="2">
         <v>236</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:5">
       <c r="A237" s="2" t="s">
         <v>441</v>
       </c>
@@ -6262,11 +6253,11 @@
       <c r="C237" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E237" s="3">
+      <c r="E237" s="2">
         <v>237</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:5">
       <c r="A238" s="2" t="s">
         <v>442</v>
       </c>
@@ -6276,11 +6267,11 @@
       <c r="C238" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E238" s="3">
+      <c r="E238" s="2">
         <v>238</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
         <v>443</v>
       </c>
@@ -6290,11 +6281,11 @@
       <c r="C239" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E239" s="3">
+      <c r="E239" s="2">
         <v>239</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
         <v>444</v>
       </c>
@@ -6304,11 +6295,11 @@
       <c r="C240" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E240" s="3">
+      <c r="E240" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:5">
       <c r="A241" s="2" t="s">
         <v>445</v>
       </c>
@@ -6318,25 +6309,25 @@
       <c r="C241" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E241" s="3">
+      <c r="E241" s="2">
         <v>241</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:5">
       <c r="A242" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E242" s="3">
+      <c r="E242" s="2">
         <v>242</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
         <v>447</v>
       </c>
@@ -6346,25 +6337,25 @@
       <c r="C243" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E243" s="3">
+      <c r="E243" s="2">
         <v>243</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E244" s="3">
+      <c r="E244" s="2">
         <v>244</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:5">
       <c r="A245" s="2" t="s">
         <v>449</v>
       </c>
@@ -6374,25 +6365,25 @@
       <c r="C245" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E245" s="3">
+      <c r="E245" s="2">
         <v>245</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E246" s="3">
+      <c r="E246" s="2">
         <v>246</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:5">
       <c r="A247" s="2" t="s">
         <v>451</v>
       </c>
@@ -6402,11 +6393,11 @@
       <c r="C247" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E247" s="3">
+      <c r="E247" s="2">
         <v>247</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:5">
       <c r="A248" s="2" t="s">
         <v>452</v>
       </c>
@@ -6416,11 +6407,11 @@
       <c r="C248" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E248" s="3">
+      <c r="E248" s="2">
         <v>248</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:5">
       <c r="A249" s="2" t="s">
         <v>455</v>
       </c>
@@ -6430,11 +6421,11 @@
       <c r="C249" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E249" s="3">
+      <c r="E249" s="2">
         <v>249</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:5">
       <c r="A250" s="2" t="s">
         <v>458</v>
       </c>
@@ -6444,11 +6435,11 @@
       <c r="C250" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E250" s="3">
+      <c r="E250" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:5">
       <c r="A251" s="2" t="s">
         <v>459</v>
       </c>
@@ -6458,25 +6449,25 @@
       <c r="C251" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E251" s="3">
+      <c r="E251" s="2">
         <v>251</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:5">
       <c r="A252" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E252" s="3">
+      <c r="E252" s="2">
         <v>252</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:5">
       <c r="A253" s="2" t="s">
         <v>463</v>
       </c>
@@ -6486,11 +6477,11 @@
       <c r="C253" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E253" s="3">
+      <c r="E253" s="2">
         <v>253</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:5">
       <c r="A254" s="2" t="s">
         <v>466</v>
       </c>
@@ -6500,11 +6491,11 @@
       <c r="C254" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E254" s="3">
+      <c r="E254" s="2">
         <v>254</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:5">
       <c r="A255" s="2" t="s">
         <v>467</v>
       </c>
@@ -6514,11 +6505,11 @@
       <c r="C255" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E255" s="3">
+      <c r="E255" s="2">
         <v>255</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:5">
       <c r="A256" s="2" t="s">
         <v>468</v>
       </c>
@@ -6528,11 +6519,11 @@
       <c r="C256" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E256" s="3">
+      <c r="E256" s="2">
         <v>256</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:5">
       <c r="A257" s="2" t="s">
         <v>469</v>
       </c>
@@ -6542,11 +6533,11 @@
       <c r="C257" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E257" s="3">
+      <c r="E257" s="2">
         <v>257</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:5">
       <c r="A258" s="2" t="s">
         <v>470</v>
       </c>
@@ -6556,11 +6547,11 @@
       <c r="C258" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E258" s="3">
+      <c r="E258" s="2">
         <v>258</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:5">
       <c r="A259" s="2" t="s">
         <v>473</v>
       </c>
@@ -6570,25 +6561,25 @@
       <c r="C259" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E259" s="3">
+      <c r="E259" s="2">
         <v>259</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E260" s="3">
+      <c r="E260" s="2">
         <v>260</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:5">
       <c r="A261" s="2" t="s">
         <v>475</v>
       </c>
@@ -6598,11 +6589,11 @@
       <c r="C261" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E261" s="3">
+      <c r="E261" s="2">
         <v>261</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:5">
       <c r="A262" s="2" t="s">
         <v>476</v>
       </c>
@@ -6612,11 +6603,11 @@
       <c r="C262" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E262" s="3">
+      <c r="E262" s="2">
         <v>262</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:5">
       <c r="A263" s="2" t="s">
         <v>477</v>
       </c>
@@ -6626,11 +6617,11 @@
       <c r="C263" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E263" s="3">
+      <c r="E263" s="2">
         <v>263</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:5">
       <c r="A264" s="2" t="s">
         <v>478</v>
       </c>
@@ -6640,11 +6631,11 @@
       <c r="C264" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E264" s="3">
+      <c r="E264" s="2">
         <v>264</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:5">
       <c r="A265" s="2" t="s">
         <v>479</v>
       </c>
@@ -6654,25 +6645,25 @@
       <c r="C265" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E265" s="3">
+      <c r="E265" s="2">
         <v>265</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:5">
       <c r="A266" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E266" s="3">
+      <c r="E266" s="2">
         <v>266</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:5">
       <c r="A267" s="2" t="s">
         <v>481</v>
       </c>
@@ -6682,11 +6673,11 @@
       <c r="C267" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E267" s="3">
+      <c r="E267" s="2">
         <v>267</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
         <v>482</v>
       </c>
@@ -6696,11 +6687,11 @@
       <c r="C268" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E268" s="3">
+      <c r="E268" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:5">
       <c r="A269" s="2" t="s">
         <v>483</v>
       </c>
@@ -6710,11 +6701,11 @@
       <c r="C269" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E269" s="3">
+      <c r="E269" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
         <v>484</v>
       </c>
@@ -6724,11 +6715,11 @@
       <c r="C270" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E270" s="3">
+      <c r="E270" s="2">
         <v>270</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:5">
       <c r="A271" s="2" t="s">
         <v>485</v>
       </c>
@@ -6738,11 +6729,11 @@
       <c r="C271" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E271" s="3">
+      <c r="E271" s="2">
         <v>271</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:5">
       <c r="A272" s="2" t="s">
         <v>486</v>
       </c>
@@ -6752,11 +6743,11 @@
       <c r="C272" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E272" s="3">
+      <c r="E272" s="2">
         <v>272</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
         <v>487</v>
       </c>
@@ -6766,11 +6757,11 @@
       <c r="C273" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E273" s="3">
+      <c r="E273" s="2">
         <v>273</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
         <v>488</v>
       </c>
@@ -6780,11 +6771,11 @@
       <c r="C274" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E274" s="3">
+      <c r="E274" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
         <v>489</v>
       </c>
@@ -6794,25 +6785,25 @@
       <c r="C275" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E275" s="3">
+      <c r="E275" s="2">
         <v>275</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E276" s="3">
+      <c r="E276" s="2">
         <v>276</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:5">
       <c r="A277" s="2" t="s">
         <v>493</v>
       </c>
@@ -6822,11 +6813,11 @@
       <c r="C277" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E277" s="3">
+      <c r="E277" s="2">
         <v>277</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
         <v>496</v>
       </c>
@@ -6836,11 +6827,11 @@
       <c r="C278" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E278" s="3">
+      <c r="E278" s="2">
         <v>278</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
         <v>497</v>
       </c>
@@ -6850,11 +6841,11 @@
       <c r="C279" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E279" s="3">
+      <c r="E279" s="2">
         <v>279</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:5">
       <c r="A280" s="2" t="s">
         <v>498</v>
       </c>
@@ -6864,11 +6855,11 @@
       <c r="C280" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E280" s="3">
+      <c r="E280" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:5">
       <c r="A281" s="2" t="s">
         <v>499</v>
       </c>
@@ -6878,11 +6869,11 @@
       <c r="C281" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E281" s="3">
+      <c r="E281" s="2">
         <v>281</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
         <v>500</v>
       </c>
@@ -6892,11 +6883,11 @@
       <c r="C282" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E282" s="3">
+      <c r="E282" s="2">
         <v>282</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:5">
       <c r="A283" s="2" t="s">
         <v>503</v>
       </c>
@@ -6906,11 +6897,11 @@
       <c r="C283" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E283" s="3">
+      <c r="E283" s="2">
         <v>283</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
         <v>504</v>
       </c>
@@ -6920,11 +6911,11 @@
       <c r="C284" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E284" s="3">
+      <c r="E284" s="2">
         <v>284</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:5">
       <c r="A285" s="2" t="s">
         <v>506</v>
       </c>
@@ -6934,81 +6925,81 @@
       <c r="C285" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E285" s="3">
+      <c r="E285" s="2">
         <v>285</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="3" t="s">
+    <row r="286" spans="1:5">
+      <c r="A286" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E286" s="3">
+      <c r="E286" s="2">
         <v>286</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="3" t="s">
+    <row r="287" spans="1:5">
+      <c r="A287" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E287" s="3">
+      <c r="E287" s="2">
         <v>287</v>
       </c>
     </row>
-    <row r="288" s="4" customFormat="1">
-      <c r="A288" s="3" t="s">
+    <row r="288" spans="1:5">
+      <c r="A288" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C288" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E288" s="4">
+      <c r="E288" s="2">
         <v>288</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="3" t="s">
+    <row r="289" spans="1:5">
+      <c r="A289" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E289" s="3">
+      <c r="E289" s="2">
         <v>289</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:5">
       <c r="A290" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E290" s="3">
+      <c r="E290" s="2">
         <v>290</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:5">
       <c r="A291" s="2" t="s">
         <v>520</v>
       </c>
@@ -7018,109 +7009,109 @@
       <c r="C291" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E291" s="3">
+      <c r="E291" s="2">
         <v>291</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:5">
       <c r="A292" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E292" s="3">
+      <c r="E292" s="2">
         <v>292</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="3" t="s">
+    <row r="293" spans="1:5">
+      <c r="A293" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E293" s="3">
+      <c r="E293" s="2">
         <v>293</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="3" t="s">
+    <row r="294" spans="1:5">
+      <c r="A294" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E294" s="3">
+      <c r="E294" s="2">
         <v>294</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="3" t="s">
+    <row r="295" spans="1:5">
+      <c r="A295" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E295" s="3">
+      <c r="E295" s="2">
         <v>295</v>
       </c>
     </row>
-    <row r="296" s="4" customFormat="1">
-      <c r="A296" s="3" t="s">
+    <row r="296" spans="1:5">
+      <c r="A296" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E296" s="4">
+      <c r="E296" s="2">
         <v>296</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="3" t="s">
+    <row r="297" spans="1:5">
+      <c r="A297" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E297" s="3">
+      <c r="E297" s="2">
         <v>297</v>
       </c>
     </row>
-    <row r="298" s="4" customFormat="1">
-      <c r="A298" s="3" t="s">
+    <row r="298" spans="1:5">
+      <c r="A298" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C298" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E298" s="4">
+      <c r="E298" s="2">
         <v>298</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:5">
       <c r="A299" s="2" t="s">
         <v>532</v>
       </c>
@@ -7130,40 +7121,40 @@
       <c r="C299" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E299" s="3">
+      <c r="E299" s="2">
         <v>299</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:5">
       <c r="A300" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E300" s="3">
+      <c r="E300" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="3" t="s">
+    <row r="301" spans="1:5">
+      <c r="A301" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E301" s="3">
+      <c r="E301" s="2">
         <v>301</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="3" t="s">
+    <row r="302" spans="1:5">
+      <c r="A302" s="2" t="s">
         <v>535</v>
       </c>
       <c r="B302" s="3" t="s">
@@ -7172,39 +7163,39 @@
       <c r="C302" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E302" s="3">
+      <c r="E302" s="2">
         <v>302</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="3" t="s">
+    <row r="303" spans="1:5">
+      <c r="A303" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E303" s="3">
+      <c r="E303" s="2">
         <v>303</v>
       </c>
     </row>
-    <row r="304" s="4" customFormat="1">
-      <c r="A304" s="3" t="s">
+    <row r="304" spans="1:5">
+      <c r="A304" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="B304" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E304" s="4">
+      <c r="E304" s="2">
         <v>304</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:5">
       <c r="A305" s="2" t="s">
         <v>538</v>
       </c>
@@ -7214,11 +7205,11 @@
       <c r="C305" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E305" s="3">
+      <c r="E305" s="2">
         <v>305</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
         <v>539</v>
       </c>
@@ -7228,11 +7219,11 @@
       <c r="C306" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E306" s="3">
+      <c r="E306" s="2">
         <v>306</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:5">
       <c r="A307" s="2" t="s">
         <v>540</v>
       </c>
@@ -7242,25 +7233,25 @@
       <c r="C307" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E307" s="3">
+      <c r="E307" s="2">
         <v>307</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:5">
       <c r="A308" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C308" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E308" s="3">
+      <c r="E308" s="2">
         <v>308</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:5">
       <c r="A309" s="2" t="s">
         <v>542</v>
       </c>
@@ -7270,25 +7261,25 @@
       <c r="C309" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E309" s="3">
+      <c r="E309" s="2">
         <v>309</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E310" s="3">
+      <c r="E310" s="2">
         <v>310</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:5">
       <c r="A311" s="2" t="s">
         <v>544</v>
       </c>
@@ -7298,25 +7289,25 @@
       <c r="C311" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E311" s="3">
+      <c r="E311" s="2">
         <v>311</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C312" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="E312" s="3">
+      <c r="E312" s="2">
         <v>312</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:5">
       <c r="A313" s="2" t="s">
         <v>548</v>
       </c>
@@ -7326,25 +7317,25 @@
       <c r="C313" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="E313" s="3">
+      <c r="E313" s="2">
         <v>313</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E314" s="3">
+      <c r="E314" s="2">
         <v>314</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:5">
       <c r="A315" s="2" t="s">
         <v>552</v>
       </c>
@@ -7354,25 +7345,25 @@
       <c r="C315" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E315" s="3">
+      <c r="E315" s="2">
         <v>315</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C316" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E316" s="3">
+      <c r="E316" s="2">
         <v>316</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:5">
       <c r="A317" s="2" t="s">
         <v>554</v>
       </c>
@@ -7382,25 +7373,25 @@
       <c r="C317" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E317" s="3">
+      <c r="E317" s="2">
         <v>317</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:5">
       <c r="A318" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C318" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E318" s="3">
+      <c r="E318" s="2">
         <v>318</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:5">
       <c r="A319" s="2" t="s">
         <v>556</v>
       </c>
@@ -7410,25 +7401,25 @@
       <c r="C319" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E319" s="3">
+      <c r="E319" s="2">
         <v>319</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:5">
       <c r="A320" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C320" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="E320" s="3">
+      <c r="E320" s="2">
         <v>320</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:5">
       <c r="A321" s="2" t="s">
         <v>560</v>
       </c>
@@ -7438,11 +7429,11 @@
       <c r="C321" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E321" s="3">
+      <c r="E321" s="2">
         <v>321</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
         <v>561</v>
       </c>
@@ -7452,11 +7443,11 @@
       <c r="C322" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E322" s="3">
+      <c r="E322" s="2">
         <v>322</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:5">
       <c r="A323" s="2" t="s">
         <v>564</v>
       </c>
@@ -7466,11 +7457,11 @@
       <c r="C323" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E323" s="3">
+      <c r="E323" s="2">
         <v>323</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
         <v>565</v>
       </c>
@@ -7480,11 +7471,11 @@
       <c r="C324" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E324" s="3">
+      <c r="E324" s="2">
         <v>324</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
         <v>568</v>
       </c>
@@ -7494,11 +7485,11 @@
       <c r="C325" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E325" s="3">
+      <c r="E325" s="2">
         <v>325</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
         <v>569</v>
       </c>
@@ -7508,11 +7499,11 @@
       <c r="C326" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E326" s="3">
+      <c r="E326" s="2">
         <v>326</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:5">
       <c r="A327" s="2" t="s">
         <v>570</v>
       </c>
@@ -7522,11 +7513,11 @@
       <c r="C327" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E327" s="3">
+      <c r="E327" s="2">
         <v>327</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:5">
       <c r="A328" s="2" t="s">
         <v>573</v>
       </c>
@@ -7536,11 +7527,11 @@
       <c r="C328" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E328" s="3">
+      <c r="E328" s="2">
         <v>328</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
         <v>576</v>
       </c>
@@ -7550,11 +7541,11 @@
       <c r="C329" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E329" s="3">
+      <c r="E329" s="2">
         <v>329</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:5">
       <c r="A330" s="2" t="s">
         <v>577</v>
       </c>
@@ -7564,11 +7555,11 @@
       <c r="C330" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E330" s="3">
+      <c r="E330" s="2">
         <v>330</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:5">
       <c r="A331" s="2" t="s">
         <v>580</v>
       </c>
@@ -7578,11 +7569,11 @@
       <c r="C331" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E331" s="3">
+      <c r="E331" s="2">
         <v>331</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
         <v>581</v>
       </c>
@@ -7592,11 +7583,11 @@
       <c r="C332" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E332" s="3">
+      <c r="E332" s="2">
         <v>332</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
         <v>584</v>
       </c>
@@ -7606,25 +7597,25 @@
       <c r="C333" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E333" s="3">
+      <c r="E333" s="2">
         <v>333</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="C334" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E334" s="3">
+      <c r="E334" s="2">
         <v>334</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:5">
       <c r="A335" s="2" t="s">
         <v>590</v>
       </c>
@@ -7634,11 +7625,11 @@
       <c r="C335" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E335" s="3">
+      <c r="E335" s="2">
         <v>335</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:5">
       <c r="A336" s="2" t="s">
         <v>593</v>
       </c>
@@ -7648,11 +7639,11 @@
       <c r="C336" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E336" s="3">
+      <c r="E336" s="2">
         <v>336</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:5">
       <c r="A337" s="2" t="s">
         <v>594</v>
       </c>
@@ -7662,11 +7653,11 @@
       <c r="C337" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E337" s="3">
+      <c r="E337" s="2">
         <v>337</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:5">
       <c r="A338" s="2" t="s">
         <v>597</v>
       </c>
@@ -7676,25 +7667,25 @@
       <c r="C338" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E338" s="3">
+      <c r="E338" s="2">
         <v>338</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:5">
       <c r="A339" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C339" s="2" t="s">
+      <c r="C339" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E339" s="3">
+      <c r="E339" s="2">
         <v>339</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:5">
       <c r="A340" s="2" t="s">
         <v>601</v>
       </c>
@@ -7704,11 +7695,11 @@
       <c r="C340" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E340" s="3">
+      <c r="E340" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:5">
       <c r="A341" s="2" t="s">
         <v>602</v>
       </c>
@@ -7718,11 +7709,11 @@
       <c r="C341" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E341" s="3">
+      <c r="E341" s="2">
         <v>341</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:5">
       <c r="A342" s="2" t="s">
         <v>603</v>
       </c>
@@ -7732,11 +7723,11 @@
       <c r="C342" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E342" s="3">
+      <c r="E342" s="2">
         <v>342</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:5">
       <c r="A343" s="2" t="s">
         <v>606</v>
       </c>
@@ -7746,25 +7737,25 @@
       <c r="C343" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E343" s="3">
+      <c r="E343" s="2">
         <v>343</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:5">
       <c r="A344" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="C344" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="E344" s="3">
+      <c r="E344" s="2">
         <v>344</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:5">
       <c r="A345" s="2" t="s">
         <v>610</v>
       </c>
@@ -7774,11 +7765,11 @@
       <c r="C345" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E345" s="3">
+      <c r="E345" s="2">
         <v>345</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:5">
       <c r="A346" s="2" t="s">
         <v>611</v>
       </c>
@@ -7788,11 +7779,11 @@
       <c r="C346" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E346" s="3">
+      <c r="E346" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:5">
       <c r="A347" s="2" t="s">
         <v>612</v>
       </c>
@@ -7802,11 +7793,11 @@
       <c r="C347" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="E347" s="3">
+      <c r="E347" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:5">
       <c r="A348" s="2" t="s">
         <v>615</v>
       </c>
@@ -7816,11 +7807,11 @@
       <c r="C348" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E348" s="3">
+      <c r="E348" s="2">
         <v>348</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:5">
       <c r="A349" s="2" t="s">
         <v>618</v>
       </c>
@@ -7830,11 +7821,11 @@
       <c r="C349" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E349" s="3">
+      <c r="E349" s="2">
         <v>349</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:5">
       <c r="A350" s="2" t="s">
         <v>621</v>
       </c>
@@ -7844,11 +7835,11 @@
       <c r="C350" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="E350" s="3">
+      <c r="E350" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:5">
       <c r="A351" s="2" t="s">
         <v>624</v>
       </c>
@@ -7858,11 +7849,11 @@
       <c r="C351" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="E351" s="3">
+      <c r="E351" s="2">
         <v>351</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
         <v>627</v>
       </c>
@@ -7872,11 +7863,11 @@
       <c r="C352" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="E352" s="3">
+      <c r="E352" s="2">
         <v>352</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:5">
       <c r="A353" s="2" t="s">
         <v>630</v>
       </c>
@@ -7886,11 +7877,11 @@
       <c r="C353" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E353" s="3">
+      <c r="E353" s="2">
         <v>353</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
         <v>633</v>
       </c>
@@ -7900,11 +7891,11 @@
       <c r="C354" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="E354" s="3">
+      <c r="E354" s="2">
         <v>354</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
         <v>636</v>
       </c>
@@ -7914,11 +7905,11 @@
       <c r="C355" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E355" s="3">
+      <c r="E355" s="2">
         <v>355</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
         <v>639</v>
       </c>
@@ -7928,11 +7919,11 @@
       <c r="C356" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E356" s="3">
+      <c r="E356" s="2">
         <v>356</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:5">
       <c r="A357" s="2" t="s">
         <v>640</v>
       </c>
@@ -7942,11 +7933,11 @@
       <c r="C357" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="E357" s="3">
+      <c r="E357" s="2">
         <v>357</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
         <v>641</v>
       </c>
@@ -7956,11 +7947,11 @@
       <c r="C358" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E358" s="3">
+      <c r="E358" s="2">
         <v>358</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:5">
       <c r="A359" s="2" t="s">
         <v>642</v>
       </c>
@@ -7970,11 +7961,11 @@
       <c r="C359" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E359" s="3">
+      <c r="E359" s="2">
         <v>359</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:5">
       <c r="A360" s="2" t="s">
         <v>645</v>
       </c>
@@ -7984,11 +7975,11 @@
       <c r="C360" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E360" s="3">
+      <c r="E360" s="2">
         <v>360</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:5">
       <c r="A361" s="2" t="s">
         <v>646</v>
       </c>
@@ -7998,11 +7989,11 @@
       <c r="C361" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E361" s="3">
+      <c r="E361" s="2">
         <v>361</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
         <v>647</v>
       </c>
@@ -8012,11 +8003,11 @@
       <c r="C362" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="E362" s="3">
+      <c r="E362" s="2">
         <v>362</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:5">
       <c r="A363" s="2" t="s">
         <v>648</v>
       </c>
@@ -8026,11 +8017,11 @@
       <c r="C363" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E363" s="3">
+      <c r="E363" s="2">
         <v>363</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:5">
       <c r="A364" s="2" t="s">
         <v>649</v>
       </c>
@@ -8040,11 +8031,11 @@
       <c r="C364" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="E364" s="3">
+      <c r="E364" s="2">
         <v>364</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:5">
       <c r="A365" s="2" t="s">
         <v>652</v>
       </c>
@@ -8054,11 +8045,11 @@
       <c r="C365" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E365" s="3">
+      <c r="E365" s="2">
         <v>365</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
         <v>653</v>
       </c>
@@ -8068,11 +8059,11 @@
       <c r="C366" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E366" s="3">
+      <c r="E366" s="2">
         <v>366</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:5">
       <c r="A367" s="2" t="s">
         <v>654</v>
       </c>
@@ -8082,11 +8073,11 @@
       <c r="C367" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E367" s="3">
+      <c r="E367" s="2">
         <v>367</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:5">
       <c r="A368" s="2" t="s">
         <v>657</v>
       </c>
@@ -8096,11 +8087,11 @@
       <c r="C368" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="E368" s="3">
+      <c r="E368" s="2">
         <v>368</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:5">
       <c r="A369" s="2" t="s">
         <v>660</v>
       </c>
@@ -8110,11 +8101,11 @@
       <c r="C369" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="E369" s="3">
+      <c r="E369" s="2">
         <v>369</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
         <v>663</v>
       </c>
@@ -8124,11 +8115,11 @@
       <c r="C370" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="E370" s="3">
+      <c r="E370" s="2">
         <v>370</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
         <v>666</v>
       </c>
@@ -8138,11 +8129,11 @@
       <c r="C371" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="E371" s="3">
+      <c r="E371" s="2">
         <v>371</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
         <v>667</v>
       </c>
@@ -8152,11 +8143,11 @@
       <c r="C372" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="E372" s="3">
+      <c r="E372" s="2">
         <v>372</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:5">
       <c r="A373" s="2" t="s">
         <v>670</v>
       </c>
@@ -8166,11 +8157,11 @@
       <c r="C373" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="E373" s="3">
+      <c r="E373" s="2">
         <v>373</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
         <v>671</v>
       </c>
@@ -8180,11 +8171,11 @@
       <c r="C374" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="E374" s="3">
+      <c r="E374" s="2">
         <v>374</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
         <v>674</v>
       </c>
@@ -8194,11 +8185,11 @@
       <c r="C375" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="E375" s="3">
+      <c r="E375" s="2">
         <v>375</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
         <v>675</v>
       </c>
@@ -8208,11 +8199,11 @@
       <c r="C376" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="E376" s="3">
+      <c r="E376" s="2">
         <v>376</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
         <v>676</v>
       </c>
@@ -8222,11 +8213,11 @@
       <c r="C377" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E377" s="3">
+      <c r="E377" s="2">
         <v>377</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
         <v>679</v>
       </c>
@@ -8236,11 +8227,11 @@
       <c r="C378" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E378" s="3">
+      <c r="E378" s="2">
         <v>378</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
         <v>682</v>
       </c>
@@ -8250,11 +8241,11 @@
       <c r="C379" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E379" s="3">
+      <c r="E379" s="2">
         <v>379</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
         <v>683</v>
       </c>
@@ -8264,11 +8255,11 @@
       <c r="C380" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E380" s="3">
+      <c r="E380" s="2">
         <v>380</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
         <v>684</v>
       </c>
@@ -8278,11 +8269,11 @@
       <c r="C381" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="E381" s="3">
+      <c r="E381" s="2">
         <v>381</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
         <v>687</v>
       </c>
@@ -8292,11 +8283,11 @@
       <c r="C382" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="E382" s="3">
+      <c r="E382" s="2">
         <v>382</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
         <v>690</v>
       </c>
@@ -8306,11 +8297,11 @@
       <c r="C383" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E383" s="3">
+      <c r="E383" s="2">
         <v>383</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
         <v>691</v>
       </c>
@@ -8320,11 +8311,11 @@
       <c r="C384" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E384" s="3">
+      <c r="E384" s="2">
         <v>384</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:5">
       <c r="A385" s="2" t="s">
         <v>692</v>
       </c>
@@ -8334,11 +8325,11 @@
       <c r="C385" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E385" s="3">
+      <c r="E385" s="2">
         <v>385</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:5">
       <c r="A386" s="2" t="s">
         <v>693</v>
       </c>
@@ -8348,11 +8339,11 @@
       <c r="C386" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="E386" s="3">
+      <c r="E386" s="2">
         <v>386</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
         <v>696</v>
       </c>
@@ -8362,11 +8353,11 @@
       <c r="C387" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="E387" s="3">
+      <c r="E387" s="2">
         <v>387</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:5">
       <c r="A388" s="2" t="s">
         <v>699</v>
       </c>
@@ -8376,11 +8367,11 @@
       <c r="C388" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E388" s="3">
+      <c r="E388" s="2">
         <v>388</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:5">
       <c r="A389" s="2" t="s">
         <v>700</v>
       </c>
@@ -8390,11 +8381,11 @@
       <c r="C389" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="E389" s="3">
+      <c r="E389" s="2">
         <v>389</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
         <v>703</v>
       </c>
@@ -8404,11 +8395,11 @@
       <c r="C390" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E390" s="3">
+      <c r="E390" s="2">
         <v>390</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:5">
       <c r="A391" s="2" t="s">
         <v>704</v>
       </c>
@@ -8418,11 +8409,11 @@
       <c r="C391" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E391" s="3">
+      <c r="E391" s="2">
         <v>391</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
         <v>705</v>
       </c>
@@ -8432,11 +8423,11 @@
       <c r="C392" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="E392" s="3">
+      <c r="E392" s="2">
         <v>392</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
         <v>706</v>
       </c>
@@ -8446,11 +8437,11 @@
       <c r="C393" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E393" s="3">
+      <c r="E393" s="2">
         <v>393</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:5">
       <c r="A394" s="2" t="s">
         <v>707</v>
       </c>
@@ -8460,11 +8451,11 @@
       <c r="C394" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="E394" s="3">
+      <c r="E394" s="2">
         <v>394</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:5">
       <c r="A395" s="2" t="s">
         <v>710</v>
       </c>
@@ -8474,11 +8465,11 @@
       <c r="C395" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E395" s="3">
+      <c r="E395" s="2">
         <v>395</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
         <v>711</v>
       </c>
@@ -8488,11 +8479,11 @@
       <c r="C396" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E396" s="3">
+      <c r="E396" s="2">
         <v>396</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:5">
       <c r="A397" s="2" t="s">
         <v>712</v>
       </c>
@@ -8502,11 +8493,11 @@
       <c r="C397" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="E397" s="3">
+      <c r="E397" s="2">
         <v>397</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:5">
       <c r="A398" s="2" t="s">
         <v>715</v>
       </c>
@@ -8516,25 +8507,25 @@
       <c r="C398" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="E398" s="3">
+      <c r="E398" s="2">
         <v>398</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:5">
       <c r="A399" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="C399" s="2" t="s">
+      <c r="C399" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="E399" s="3">
+      <c r="E399" s="2">
         <v>399</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:5">
       <c r="A400" s="2" t="s">
         <v>721</v>
       </c>
@@ -8544,11 +8535,11 @@
       <c r="C400" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="E400" s="3">
+      <c r="E400" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:5">
       <c r="A401" s="2" t="s">
         <v>724</v>
       </c>
@@ -8558,11 +8549,11 @@
       <c r="C401" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="E401" s="3">
+      <c r="E401" s="2">
         <v>401</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:5">
       <c r="A402" s="2" t="s">
         <v>725</v>
       </c>
@@ -8572,11 +8563,11 @@
       <c r="C402" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="E402" s="3">
+      <c r="E402" s="2">
         <v>402</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:5">
       <c r="A403" s="2" t="s">
         <v>728</v>
       </c>
@@ -8586,25 +8577,25 @@
       <c r="C403" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="E403" s="3">
+      <c r="E403" s="2">
         <v>403</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:5">
       <c r="A404" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="C404" s="2" t="s">
+      <c r="C404" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="E404" s="3">
+      <c r="E404" s="2">
         <v>404</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:5">
       <c r="A405" s="2" t="s">
         <v>732</v>
       </c>
@@ -8614,11 +8605,11 @@
       <c r="C405" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E405" s="3">
+      <c r="E405" s="2">
         <v>405</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:5">
       <c r="A406" s="2" t="s">
         <v>735</v>
       </c>
@@ -8628,11 +8619,11 @@
       <c r="C406" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="E406" s="3">
+      <c r="E406" s="2">
         <v>406</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:5">
       <c r="A407" s="2" t="s">
         <v>736</v>
       </c>
@@ -8642,11 +8633,11 @@
       <c r="C407" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="E407" s="3">
+      <c r="E407" s="2">
         <v>407</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:5">
       <c r="A408" s="2" t="s">
         <v>739</v>
       </c>
@@ -8656,11 +8647,11 @@
       <c r="C408" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E408" s="3">
+      <c r="E408" s="2">
         <v>408</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
         <v>742</v>
       </c>
@@ -8670,11 +8661,11 @@
       <c r="C409" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="E409" s="3">
+      <c r="E409" s="2">
         <v>409</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:5">
       <c r="A410" s="2" t="s">
         <v>745</v>
       </c>
@@ -8684,11 +8675,11 @@
       <c r="C410" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="E410" s="3">
+      <c r="E410" s="2">
         <v>410</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
         <v>748</v>
       </c>
@@ -8698,11 +8689,11 @@
       <c r="C411" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E411" s="3">
+      <c r="E411" s="2">
         <v>411</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:5">
       <c r="A412" s="2" t="s">
         <v>749</v>
       </c>
@@ -8712,11 +8703,11 @@
       <c r="C412" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="E412" s="3">
+      <c r="E412" s="2">
         <v>412</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:5">
       <c r="A413" s="2" t="s">
         <v>752</v>
       </c>
@@ -8726,11 +8717,11 @@
       <c r="C413" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E413" s="3">
+      <c r="E413" s="2">
         <v>413</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:5">
       <c r="A414" s="2" t="s">
         <v>753</v>
       </c>
@@ -8740,11 +8731,11 @@
       <c r="C414" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="E414" s="3">
+      <c r="E414" s="2">
         <v>414</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:5">
       <c r="A415" s="2" t="s">
         <v>756</v>
       </c>
@@ -8754,11 +8745,11 @@
       <c r="C415" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="E415" s="3">
+      <c r="E415" s="2">
         <v>415</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:5">
       <c r="A416" s="2" t="s">
         <v>759</v>
       </c>
@@ -8768,25 +8759,25 @@
       <c r="C416" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E416" s="3">
+      <c r="E416" s="2">
         <v>416</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:5">
       <c r="A417" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="C417" s="2" t="s">
+      <c r="C417" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="E417" s="3">
+      <c r="E417" s="2">
         <v>417</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:5">
       <c r="A418" s="2" t="s">
         <v>763</v>
       </c>
@@ -8796,11 +8787,11 @@
       <c r="C418" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E418" s="3">
+      <c r="E418" s="2">
         <v>418</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:5">
       <c r="A419" s="2" t="s">
         <v>765</v>
       </c>
@@ -8810,11 +8801,11 @@
       <c r="C419" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="E419" s="3">
+      <c r="E419" s="2">
         <v>419</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
         <v>767</v>
       </c>
@@ -8824,11 +8815,11 @@
       <c r="C420" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E420" s="3">
+      <c r="E420" s="2">
         <v>420</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:5">
       <c r="A421" s="2" t="s">
         <v>768</v>
       </c>
@@ -8838,11 +8829,11 @@
       <c r="C421" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="E421" s="3">
+      <c r="E421" s="2">
         <v>421</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:5">
       <c r="A422" s="2" t="s">
         <v>770</v>
       </c>
@@ -8852,11 +8843,11 @@
       <c r="C422" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E422" s="3">
+      <c r="E422" s="2">
         <v>422</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:5">
       <c r="A423" s="2" t="s">
         <v>771</v>
       </c>
@@ -8866,11 +8857,11 @@
       <c r="C423" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="E423" s="3">
+      <c r="E423" s="2">
         <v>423</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:5">
       <c r="A424" s="2" t="s">
         <v>773</v>
       </c>
@@ -8880,11 +8871,11 @@
       <c r="C424" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E424" s="3">
+      <c r="E424" s="2">
         <v>424</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:5">
       <c r="A425" s="2" t="s">
         <v>774</v>
       </c>
@@ -8894,25 +8885,25 @@
       <c r="C425" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="E425" s="3">
+      <c r="E425" s="2">
         <v>425</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:5">
       <c r="A426" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B426" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="C426" s="2" t="s">
+      <c r="C426" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="E426" s="3">
+      <c r="E426" s="2">
         <v>426</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:5">
       <c r="A427" s="2" t="s">
         <v>779</v>
       </c>
@@ -8922,11 +8913,11 @@
       <c r="C427" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E427" s="3">
+      <c r="E427" s="2">
         <v>427</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:5">
       <c r="A428" s="2" t="s">
         <v>780</v>
       </c>
@@ -8936,11 +8927,11 @@
       <c r="C428" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="E428" s="3">
+      <c r="E428" s="2">
         <v>428</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:5">
       <c r="A429" s="2" t="s">
         <v>782</v>
       </c>
@@ -8950,11 +8941,11 @@
       <c r="C429" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E429" s="3">
+      <c r="E429" s="2">
         <v>429</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:5">
       <c r="A430" s="2" t="s">
         <v>783</v>
       </c>
@@ -8964,11 +8955,11 @@
       <c r="C430" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="E430" s="3">
+      <c r="E430" s="2">
         <v>430</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:5">
       <c r="A431" s="2" t="s">
         <v>785</v>
       </c>
@@ -8978,11 +8969,11 @@
       <c r="C431" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E431" s="3">
+      <c r="E431" s="2">
         <v>431</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:5">
       <c r="A432" s="2" t="s">
         <v>786</v>
       </c>
@@ -8992,11 +8983,11 @@
       <c r="C432" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="E432" s="3">
+      <c r="E432" s="2">
         <v>432</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:5">
       <c r="A433" s="2" t="s">
         <v>788</v>
       </c>
@@ -9006,11 +8997,11 @@
       <c r="C433" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E433" s="3">
+      <c r="E433" s="2">
         <v>433</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:5">
       <c r="A434" s="2" t="s">
         <v>789</v>
       </c>
@@ -9020,25 +9011,25 @@
       <c r="C434" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="E434" s="3">
+      <c r="E434" s="2">
         <v>434</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:5">
       <c r="A435" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="C435" s="2" t="s">
+      <c r="C435" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="E435" s="3">
+      <c r="E435" s="2">
         <v>435</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:5">
       <c r="A436" s="2" t="s">
         <v>794</v>
       </c>
@@ -9048,11 +9039,11 @@
       <c r="C436" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E436" s="3">
+      <c r="E436" s="2">
         <v>436</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:5">
       <c r="A437" s="2" t="s">
         <v>795</v>
       </c>
@@ -9062,11 +9053,11 @@
       <c r="C437" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="E437" s="3">
+      <c r="E437" s="2">
         <v>437</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:5">
       <c r="A438" s="2" t="s">
         <v>797</v>
       </c>
@@ -9076,11 +9067,11 @@
       <c r="C438" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E438" s="3">
+      <c r="E438" s="2">
         <v>438</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:5">
       <c r="A439" s="2" t="s">
         <v>798</v>
       </c>
@@ -9090,11 +9081,11 @@
       <c r="C439" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="E439" s="3">
+      <c r="E439" s="2">
         <v>439</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:5">
       <c r="A440" s="2" t="s">
         <v>800</v>
       </c>
@@ -9104,11 +9095,11 @@
       <c r="C440" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E440" s="3">
+      <c r="E440" s="2">
         <v>440</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:5">
       <c r="A441" s="2" t="s">
         <v>801</v>
       </c>
@@ -9118,11 +9109,11 @@
       <c r="C441" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="E441" s="3">
+      <c r="E441" s="2">
         <v>441</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:5">
       <c r="A442" s="2" t="s">
         <v>803</v>
       </c>
@@ -9132,11 +9123,11 @@
       <c r="C442" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E442" s="3">
+      <c r="E442" s="2">
         <v>442</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:5">
       <c r="A443" s="2" t="s">
         <v>804</v>
       </c>
@@ -9146,39 +9137,39 @@
       <c r="C443" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="E443" s="3">
+      <c r="E443" s="2">
         <v>443</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:5">
       <c r="A444" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B444" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="C444" s="2" t="s">
+      <c r="C444" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="E444" s="3">
+      <c r="E444" s="2">
         <v>444</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:5">
       <c r="A445" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B445" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="C445" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E445" s="3">
+      <c r="E445" s="2">
         <v>445</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:5">
       <c r="A446" s="2" t="s">
         <v>810</v>
       </c>
@@ -9188,39 +9179,39 @@
       <c r="C446" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E446" s="3">
+      <c r="E446" s="2">
         <v>446</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:5">
       <c r="A447" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B447" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="C447" s="2" t="s">
+      <c r="C447" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="E447" s="3">
+      <c r="E447" s="2">
         <v>447</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:5">
       <c r="A448" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C448" s="2" t="s">
+      <c r="C448" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E448" s="3">
+      <c r="E448" s="2">
         <v>448</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:5">
       <c r="A449" s="2" t="s">
         <v>815</v>
       </c>
@@ -9230,11 +9221,11 @@
       <c r="C449" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E449" s="3">
+      <c r="E449" s="2">
         <v>449</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:5">
       <c r="A450" s="2" t="s">
         <v>816</v>
       </c>
@@ -9244,11 +9235,11 @@
       <c r="C450" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="E450" s="3">
+      <c r="E450" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:5">
       <c r="A451" s="2" t="s">
         <v>819</v>
       </c>
@@ -9258,11 +9249,11 @@
       <c r="C451" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="E451" s="3">
+      <c r="E451" s="2">
         <v>451</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:5">
       <c r="A452" s="2" t="s">
         <v>820</v>
       </c>
@@ -9272,11 +9263,11 @@
       <c r="C452" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E452" s="3">
+      <c r="E452" s="2">
         <v>452</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:5">
       <c r="A453" s="2" t="s">
         <v>822</v>
       </c>
@@ -9286,11 +9277,11 @@
       <c r="C453" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="E453" s="3">
+      <c r="E453" s="2">
         <v>453</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:5">
       <c r="A454" s="2" t="s">
         <v>825</v>
       </c>
@@ -9300,11 +9291,11 @@
       <c r="C454" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="E454" s="3">
+      <c r="E454" s="2">
         <v>454</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:5">
       <c r="A455" s="2" t="s">
         <v>828</v>
       </c>
@@ -9314,11 +9305,11 @@
       <c r="C455" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="E455" s="3">
+      <c r="E455" s="2">
         <v>455</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:5">
       <c r="A456" s="2" t="s">
         <v>830</v>
       </c>
@@ -9328,11 +9319,11 @@
       <c r="C456" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="E456" s="3">
+      <c r="E456" s="2">
         <v>456</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:5">
       <c r="A457" s="2" t="s">
         <v>831</v>
       </c>
@@ -9342,11 +9333,11 @@
       <c r="C457" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="E457" s="3">
+      <c r="E457" s="2">
         <v>457</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:5">
       <c r="A458" s="2" t="s">
         <v>834</v>
       </c>
@@ -9356,11 +9347,11 @@
       <c r="C458" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="E458" s="3">
+      <c r="E458" s="2">
         <v>458</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:5">
       <c r="A459" s="2" t="s">
         <v>837</v>
       </c>
@@ -9370,39 +9361,39 @@
       <c r="C459" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="E459" s="3">
+      <c r="E459" s="2">
         <v>459</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:5">
       <c r="A460" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="C460" s="2" t="s">
+      <c r="C460" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="E460" s="3">
+      <c r="E460" s="2">
         <v>460</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:5">
       <c r="A461" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B461" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C461" s="2" t="s">
+      <c r="C461" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E461" s="3">
+      <c r="E461" s="2">
         <v>461</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:5">
       <c r="A462" s="2" t="s">
         <v>842</v>
       </c>
@@ -9412,39 +9403,39 @@
       <c r="C462" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E462" s="3">
+      <c r="E462" s="2">
         <v>462</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:5">
       <c r="A463" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B463" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="C463" s="2" t="s">
+      <c r="C463" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="E463" s="3">
+      <c r="E463" s="2">
         <v>463</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:5">
       <c r="A464" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C464" s="2" t="s">
+      <c r="C464" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="E464" s="3">
+      <c r="E464" s="2">
         <v>464</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:5">
       <c r="A465" s="2" t="s">
         <v>847</v>
       </c>
@@ -9454,47 +9445,46 @@
       <c r="C465" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E465" s="3">
+      <c r="E465" s="2">
         <v>465</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:5">
       <c r="A466" s="2" t="s">
         <v>848</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C466" s="5" t="s">
+      <c r="C466" s="2" t="s">
         <v>850</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="E466" s="3">
+      <c r="E466" s="2">
         <v>466</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:5">
       <c r="A467" s="2" t="s">
         <v>852</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="C467" s="5" t="s">
+      <c r="C467" s="2" t="s">
         <v>854</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="E467" s="3">
+      <c r="E467" s="2">
         <v>467</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/CustomLocalization/Localization/RogueTech/RU/Abilifier/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Abilifier/LocalizationDef.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Localization!$A$1:$E$467</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Localization'!$A$1:$E$467</definedName>
   </definedNames>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="855">
   <si>
     <t>AbilityDefBPerfectAim.Description.Details</t>
   </si>
@@ -664,7 +664,7 @@
     <t>Awareness</t>
   </si>
   <si>
-    <t>На чеку</t>
+    <t>Начеку</t>
   </si>
   <si>
     <t>AbilityDefP5.SafeEvasive.EffectData2.Details</t>
@@ -1525,7 +1525,7 @@
     <t>ACTION: Gain +2 Local ECM and -50% Visibility/SensorSignature for 2 Turns. Has a 3 turn cooldown.</t>
   </si>
   <si>
-    <t>АКТИВАЦИЯ: даёт себе +2 ECM and -50% к визуальной и сенсорной видимости на 2 хода. Перезарядка 3 хода.</t>
+    <t>АКТИВАЦИЯ: даёт себе +2 ECM и -50% к визуальной и сенсорной видимости на 2 хода. Перезарядка 3 хода.</t>
   </si>
   <si>
     <t>AbilityP8PhantomMech.Description.Name</t>
@@ -1555,7 +1555,7 @@
     <t>AbilityT5AI.Description.Details</t>
   </si>
   <si>
-    <t>PASSIVE: Remove one bar of stability damage when Reserving.  +1 to Initiative and Tactics Rolls.</t>
+    <t xml:space="preserve">PASSIVE: Remove one bar of stability damage when Reserving.  +1 to Initiative and Tactics Rolls.</t>
   </si>
   <si>
     <t>ПАССИВНО: при пропуске хода убирает 1 полоску нестабильности. +1 к броскам инициативы и тактики.</t>
@@ -1609,7 +1609,7 @@
     <t>AbilityT5Tactician.Description.Details</t>
   </si>
   <si>
-    <t>PASSIVE: +15% Max Sight/Sensor.  +1 to Initiative and Tactics Rolls.</t>
+    <t xml:space="preserve">PASSIVE: +15% Max Sight/Sensor.  +1 to Initiative and Tactics Rolls.</t>
   </si>
   <si>
     <t>ПАССИВНО: +15% макс. сенсоры/обзор. +1 к броскам инициативы и тактики.</t>
@@ -2588,6 +2588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2619,11 +2620,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2928,6563 +2932,6564 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="C438" sqref="C438"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="77.7109375" style="2" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="3" width="77.7109375" customWidth="1" style="3"/>
+    <col min="4" max="7" width="9.140625" customWidth="1" style="3"/>
+    <col min="8" max="16384" width="9.140625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+    <row r="10">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+    <row r="13">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+    <row r="14">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+    <row r="15">
+      <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+    <row r="16">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+    <row r="17">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+    <row r="18">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+    <row r="19">
+      <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+    <row r="20">
+      <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
+    <row r="21">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+    <row r="22">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
+    <row r="23">
+      <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+    <row r="24">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
+    <row r="25">
+      <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
+    <row r="26">
+      <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
+    <row r="27">
+      <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
+    <row r="28">
+      <c r="A28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
+    <row r="29">
+      <c r="A29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
+    <row r="30">
+      <c r="A30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+    <row r="31">
+      <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
+    <row r="32">
+      <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
+    <row r="33">
+      <c r="A33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
+    <row r="34">
+      <c r="A34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
+    <row r="35">
+      <c r="A35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
+    <row r="36">
+      <c r="A36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
+    <row r="37">
+      <c r="A37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
+    <row r="38">
+      <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
+    <row r="39">
+      <c r="A39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
+    <row r="40">
+      <c r="A40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
+    <row r="41">
+      <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
+    <row r="42">
+      <c r="A42" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
+    <row r="43">
+      <c r="A43" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+    <row r="44">
+      <c r="A44" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
+    <row r="45">
+      <c r="A45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
+    <row r="46">
+      <c r="A46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
+    <row r="47">
+      <c r="A47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
+    <row r="48">
+      <c r="A48" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
+    <row r="49">
+      <c r="A49" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
+    <row r="50">
+      <c r="A50" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
+    <row r="51">
+      <c r="A51" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
+    <row r="52">
+      <c r="A52" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
+    <row r="53">
+      <c r="A53" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
+    <row r="54">
+      <c r="A54" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
+    <row r="55">
+      <c r="A55" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
+    <row r="56">
+      <c r="A56" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
+    <row r="57">
+      <c r="A57" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
+    <row r="58">
+      <c r="A58" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
+    <row r="59">
+      <c r="A59" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
+    <row r="60">
+      <c r="A60" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
+    <row r="61">
+      <c r="A61" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
+    <row r="62">
+      <c r="A62" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
+    <row r="63">
+      <c r="A63" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
+    <row r="64">
+      <c r="A64" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2" t="s">
+    <row r="65">
+      <c r="A65" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
+    <row r="66">
+      <c r="A66" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
+    <row r="67">
+      <c r="A67" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2" t="s">
+    <row r="68">
+      <c r="A68" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2" t="s">
+    <row r="69">
+      <c r="A69" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
+    <row r="70">
+      <c r="A70" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
+    <row r="71">
+      <c r="A71" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
+    <row r="72">
+      <c r="A72" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2" t="s">
+    <row r="73">
+      <c r="A73" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
+    <row r="74">
+      <c r="A74" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2" t="s">
+    <row r="75">
+      <c r="A75" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2" t="s">
+    <row r="76">
+      <c r="A76" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2" t="s">
+    <row r="77">
+      <c r="A77" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2" t="s">
+    <row r="78">
+      <c r="A78" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2" t="s">
+    <row r="79">
+      <c r="A79" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2" t="s">
+    <row r="80">
+      <c r="A80" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2" t="s">
+    <row r="81">
+      <c r="A81" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="2" t="s">
+    <row r="82">
+      <c r="A82" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="2" t="s">
+    <row r="83">
+      <c r="A83" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="2" t="s">
+    <row r="84">
+      <c r="A84" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2" t="s">
+    <row r="85">
+      <c r="A85" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="2" t="s">
+    <row r="86">
+      <c r="A86" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="2" t="s">
+    <row r="87">
+      <c r="A87" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2" t="s">
+    <row r="88">
+      <c r="A88" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="2" t="s">
+    <row r="89">
+      <c r="A89" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2" t="s">
+    <row r="90">
+      <c r="A90" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="2" t="s">
+    <row r="91">
+      <c r="A91" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="2" t="s">
+    <row r="92">
+      <c r="A92" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="2" t="s">
+    <row r="93">
+      <c r="A93" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="2" t="s">
+    <row r="94">
+      <c r="A94" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="2" t="s">
+    <row r="95">
+      <c r="A95" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="2" t="s">
+    <row r="96">
+      <c r="A96" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="2" t="s">
+    <row r="97">
+      <c r="A97" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="2" t="s">
+    <row r="98">
+      <c r="A98" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="2" t="s">
+    <row r="99">
+      <c r="A99" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="2" t="s">
+    <row r="100">
+      <c r="A100" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="2" t="s">
+    <row r="101">
+      <c r="A101" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="2" t="s">
+    <row r="102">
+      <c r="A102" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="2" t="s">
+    <row r="103">
+      <c r="A103" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="2" t="s">
+    <row r="104">
+      <c r="A104" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="2" t="s">
+    <row r="105">
+      <c r="A105" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="2" t="s">
+    <row r="106">
+      <c r="A106" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="2" t="s">
+    <row r="107">
+      <c r="A107" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="2" t="s">
+    <row r="108">
+      <c r="A108" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="2" t="s">
+    <row r="109">
+      <c r="A109" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="2" t="s">
+    <row r="110">
+      <c r="A110" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="2" t="s">
+    <row r="111">
+      <c r="A111" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="2" t="s">
+    <row r="112">
+      <c r="A112" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="2" t="s">
+    <row r="113">
+      <c r="A113" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="2" t="s">
+    <row r="114">
+      <c r="A114" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="2" t="s">
+    <row r="115">
+      <c r="A115" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="2" t="s">
+    <row r="116">
+      <c r="A116" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="2" t="s">
+    <row r="117">
+      <c r="A117" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="2" t="s">
+    <row r="118">
+      <c r="A118" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="2" t="s">
+    <row r="119">
+      <c r="A119" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="2" t="s">
+    <row r="120">
+      <c r="A120" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="2" t="s">
+    <row r="121">
+      <c r="A121" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="2" t="s">
+    <row r="122">
+      <c r="A122" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="2" t="s">
+    <row r="123">
+      <c r="A123" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="2" t="s">
+    <row r="124">
+      <c r="A124" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="2" t="s">
+    <row r="125">
+      <c r="A125" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="2" t="s">
+    <row r="126">
+      <c r="A126" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="2" t="s">
+    <row r="127">
+      <c r="A127" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="2" t="s">
+    <row r="128">
+      <c r="A128" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="2" t="s">
+    <row r="129">
+      <c r="A129" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="2" t="s">
+    <row r="130">
+      <c r="A130" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="2" t="s">
+    <row r="131">
+      <c r="A131" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="2" t="s">
+    <row r="132">
+      <c r="A132" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="2" t="s">
+    <row r="133">
+      <c r="A133" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="2" t="s">
+    <row r="134">
+      <c r="A134" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="2" t="s">
+    <row r="135">
+      <c r="A135" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="2" t="s">
+    <row r="136">
+      <c r="A136" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="2" t="s">
+    <row r="137">
+      <c r="A137" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="3">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="2" t="s">
+    <row r="138">
+      <c r="A138" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="2" t="s">
+    <row r="139">
+      <c r="A139" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="2" t="s">
+    <row r="140">
+      <c r="A140" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="2" t="s">
+    <row r="141">
+      <c r="A141" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="2" t="s">
+    <row r="142">
+      <c r="A142" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="2" t="s">
+    <row r="143">
+      <c r="A143" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="2" t="s">
+    <row r="144">
+      <c r="A144" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="2" t="s">
+    <row r="145">
+      <c r="A145" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="2" t="s">
+    <row r="146">
+      <c r="A146" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="2" t="s">
+    <row r="147">
+      <c r="A147" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="2" t="s">
+    <row r="148">
+      <c r="A148" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="2" t="s">
+    <row r="149">
+      <c r="A149" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="2" t="s">
+    <row r="150">
+      <c r="A150" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="2" t="s">
+    <row r="151">
+      <c r="A151" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="2" t="s">
+    <row r="152">
+      <c r="A152" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="2" t="s">
+    <row r="153">
+      <c r="A153" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="2" t="s">
+    <row r="154">
+      <c r="A154" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="2" t="s">
+    <row r="155">
+      <c r="A155" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="2" t="s">
+    <row r="156">
+      <c r="A156" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="2" t="s">
+    <row r="157">
+      <c r="A157" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="2" t="s">
+    <row r="158">
+      <c r="A158" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="2" t="s">
+    <row r="159">
+      <c r="A159" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="2" t="s">
+    <row r="160">
+      <c r="A160" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="2" t="s">
+    <row r="161">
+      <c r="A161" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="2" t="s">
+    <row r="162">
+      <c r="A162" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="2" t="s">
+    <row r="163">
+      <c r="A163" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="2" t="s">
+    <row r="164">
+      <c r="A164" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="2" t="s">
+    <row r="165">
+      <c r="A165" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="2" t="s">
+    <row r="166">
+      <c r="A166" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="2" t="s">
+    <row r="167">
+      <c r="A167" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="2" t="s">
+    <row r="168">
+      <c r="A168" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="2" t="s">
+    <row r="169">
+      <c r="A169" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="2" t="s">
+    <row r="170">
+      <c r="A170" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="2" t="s">
+    <row r="171">
+      <c r="A171" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="2" t="s">
+    <row r="172">
+      <c r="A172" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="2" t="s">
+    <row r="173">
+      <c r="A173" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="2" t="s">
+    <row r="174">
+      <c r="A174" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="2" t="s">
+    <row r="175">
+      <c r="A175" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="2" t="s">
+    <row r="176">
+      <c r="A176" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="2" t="s">
+    <row r="177">
+      <c r="A177" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="2" t="s">
+    <row r="178">
+      <c r="A178" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="2" t="s">
+    <row r="179">
+      <c r="A179" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="2" t="s">
+    <row r="180">
+      <c r="A180" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="2" t="s">
+    <row r="181">
+      <c r="A181" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="2" t="s">
+    <row r="182">
+      <c r="A182" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="2" t="s">
+    <row r="183">
+      <c r="A183" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="2" t="s">
+    <row r="184">
+      <c r="A184" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="2" t="s">
+    <row r="185">
+      <c r="A185" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="2" t="s">
+    <row r="186">
+      <c r="A186" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="2" t="s">
+    <row r="187">
+      <c r="A187" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="2" t="s">
+    <row r="188">
+      <c r="A188" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="2" t="s">
+    <row r="189">
+      <c r="A189" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="2" t="s">
+    <row r="190">
+      <c r="A190" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="2" t="s">
+    <row r="191">
+      <c r="A191" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E191" s="3">
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="2" t="s">
+    <row r="192">
+      <c r="A192" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E192" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="2" t="s">
+    <row r="193">
+      <c r="A193" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="2" t="s">
+    <row r="194">
+      <c r="A194" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="2" t="s">
+    <row r="195">
+      <c r="A195" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="2" t="s">
+    <row r="196">
+      <c r="A196" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E196" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="2" t="s">
+    <row r="197">
+      <c r="A197" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="2" t="s">
+    <row r="198">
+      <c r="A198" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="2" t="s">
+    <row r="199">
+      <c r="A199" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="2" t="s">
+    <row r="200">
+      <c r="A200" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E200" s="2">
+      <c r="E200" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="2" t="s">
+    <row r="201">
+      <c r="A201" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="2" t="s">
+    <row r="202">
+      <c r="A202" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="2" t="s">
+    <row r="203">
+      <c r="A203" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="2" t="s">
+    <row r="204">
+      <c r="A204" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="2" t="s">
+    <row r="205">
+      <c r="A205" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="2" t="s">
+    <row r="206">
+      <c r="A206" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="2" t="s">
+    <row r="207">
+      <c r="A207" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="3">
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="2" t="s">
+    <row r="208">
+      <c r="A208" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="2" t="s">
+    <row r="209">
+      <c r="A209" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="2" t="s">
+    <row r="210">
+      <c r="A210" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="2" t="s">
+    <row r="211">
+      <c r="A211" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="2" t="s">
+    <row r="212">
+      <c r="A212" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="2" t="s">
+    <row r="213">
+      <c r="A213" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="2" t="s">
+    <row r="214">
+      <c r="A214" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E214" s="2">
+      <c r="E214" s="3">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="2" t="s">
+    <row r="215">
+      <c r="A215" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="2" t="s">
+    <row r="216">
+      <c r="A216" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E216" s="2">
+      <c r="E216" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="2" t="s">
+    <row r="217">
+      <c r="A217" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E217" s="2">
+      <c r="E217" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="2" t="s">
+    <row r="218">
+      <c r="A218" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E218" s="2">
+      <c r="E218" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="2" t="s">
+    <row r="219">
+      <c r="A219" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E219" s="2">
+      <c r="E219" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="2" t="s">
+    <row r="220">
+      <c r="A220" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E220" s="2">
+      <c r="E220" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="2" t="s">
+    <row r="221">
+      <c r="A221" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E221" s="2">
+      <c r="E221" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="2" t="s">
+    <row r="222">
+      <c r="A222" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E222" s="2">
+      <c r="E222" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="2" t="s">
+    <row r="223">
+      <c r="A223" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E223" s="2">
+      <c r="E223" s="3">
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="2" t="s">
+    <row r="224">
+      <c r="A224" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E224" s="2">
+      <c r="E224" s="3">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="2" t="s">
+    <row r="225">
+      <c r="A225" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E225" s="2">
+      <c r="E225" s="3">
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="2" t="s">
+    <row r="226">
+      <c r="A226" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E226" s="2">
+      <c r="E226" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="2" t="s">
+    <row r="227">
+      <c r="A227" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E227" s="2">
+      <c r="E227" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="2" t="s">
+    <row r="228">
+      <c r="A228" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E228" s="2">
+      <c r="E228" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="2" t="s">
+    <row r="229">
+      <c r="A229" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E229" s="2">
+      <c r="E229" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="2" t="s">
+    <row r="230">
+      <c r="A230" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E230" s="2">
+      <c r="E230" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="2" t="s">
+    <row r="231">
+      <c r="A231" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E231" s="2">
+      <c r="E231" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="2" t="s">
+    <row r="232">
+      <c r="A232" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E232" s="2">
+      <c r="E232" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="2" t="s">
+    <row r="233">
+      <c r="A233" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E233" s="2">
+      <c r="E233" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="2" t="s">
+    <row r="234">
+      <c r="A234" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E234" s="2">
+      <c r="E234" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="2" t="s">
+    <row r="235">
+      <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E235" s="2">
+      <c r="E235" s="3">
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="2" t="s">
+    <row r="236">
+      <c r="A236" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E236" s="2">
+      <c r="E236" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="2" t="s">
+    <row r="237">
+      <c r="A237" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E237" s="2">
+      <c r="E237" s="3">
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="2" t="s">
+    <row r="238">
+      <c r="A238" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="E238" s="2">
+      <c r="E238" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="2" t="s">
+    <row r="239">
+      <c r="A239" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E239" s="2">
+      <c r="E239" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="2" t="s">
+    <row r="240">
+      <c r="A240" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E240" s="2">
+      <c r="E240" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="2" t="s">
+    <row r="241">
+      <c r="A241" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E241" s="2">
+      <c r="E241" s="3">
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="2" t="s">
+    <row r="242">
+      <c r="A242" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E242" s="2">
+      <c r="E242" s="3">
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="2" t="s">
+    <row r="243">
+      <c r="A243" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E243" s="2">
+      <c r="E243" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="2" t="s">
+    <row r="244">
+      <c r="A244" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E244" s="2">
+      <c r="E244" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="2" t="s">
+    <row r="245">
+      <c r="A245" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E245" s="2">
+      <c r="E245" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="2" t="s">
+    <row r="246">
+      <c r="A246" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E246" s="2">
+      <c r="E246" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="2" t="s">
+    <row r="247">
+      <c r="A247" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E247" s="2">
+      <c r="E247" s="3">
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="2" t="s">
+    <row r="248">
+      <c r="A248" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="E248" s="2">
+      <c r="E248" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="2" t="s">
+    <row r="249">
+      <c r="A249" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="E249" s="2">
+      <c r="E249" s="3">
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="2" t="s">
+    <row r="250">
+      <c r="A250" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E250" s="2">
+      <c r="E250" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="2" t="s">
+    <row r="251">
+      <c r="A251" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E251" s="2">
+      <c r="E251" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="2" t="s">
+    <row r="252">
+      <c r="A252" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="E252" s="2">
+      <c r="E252" s="3">
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="2" t="s">
+    <row r="253">
+      <c r="A253" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="E253" s="2">
+      <c r="E253" s="3">
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="2" t="s">
+    <row r="254">
+      <c r="A254" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E254" s="2">
+      <c r="E254" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="2" t="s">
+    <row r="255">
+      <c r="A255" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E255" s="2">
+      <c r="E255" s="3">
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="2" t="s">
+    <row r="256">
+      <c r="A256" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E256" s="2">
+      <c r="E256" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="2" t="s">
+    <row r="257">
+      <c r="A257" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E257" s="2">
+      <c r="E257" s="3">
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="2" t="s">
+    <row r="258">
+      <c r="A258" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="E258" s="2">
+      <c r="E258" s="3">
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="2" t="s">
+    <row r="259">
+      <c r="A259" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E259" s="2">
+      <c r="E259" s="3">
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="2" t="s">
+    <row r="260">
+      <c r="A260" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="E260" s="2">
+      <c r="E260" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="2" t="s">
+    <row r="261">
+      <c r="A261" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="E261" s="2">
+      <c r="E261" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="2" t="s">
+    <row r="262">
+      <c r="A262" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E262" s="2">
+      <c r="E262" s="3">
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="2" t="s">
+    <row r="263">
+      <c r="A263" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E263" s="2">
+      <c r="E263" s="3">
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="2" t="s">
+    <row r="264">
+      <c r="A264" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E264" s="2">
+      <c r="E264" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="2" t="s">
+    <row r="265">
+      <c r="A265" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E265" s="2">
+      <c r="E265" s="3">
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="2" t="s">
+    <row r="266">
+      <c r="A266" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="E266" s="2">
+      <c r="E266" s="3">
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="2" t="s">
+    <row r="267">
+      <c r="A267" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="E267" s="2">
+      <c r="E267" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="2" t="s">
+    <row r="268">
+      <c r="A268" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E268" s="2">
+      <c r="E268" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="2" t="s">
+    <row r="269">
+      <c r="A269" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E269" s="2">
+      <c r="E269" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="2" t="s">
+    <row r="270">
+      <c r="A270" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E270" s="2">
+      <c r="E270" s="3">
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="2" t="s">
+    <row r="271">
+      <c r="A271" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E271" s="2">
+      <c r="E271" s="3">
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="2" t="s">
+    <row r="272">
+      <c r="A272" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E272" s="2">
+      <c r="E272" s="3">
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="2" t="s">
+    <row r="273">
+      <c r="A273" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E273" s="2">
+      <c r="E273" s="3">
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="2" t="s">
+    <row r="274">
+      <c r="A274" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E274" s="2">
+      <c r="E274" s="3">
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="2" t="s">
+    <row r="275">
+      <c r="A275" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E275" s="2">
+      <c r="E275" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="2" t="s">
+    <row r="276">
+      <c r="A276" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="E276" s="2">
+      <c r="E276" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="2" t="s">
+    <row r="277">
+      <c r="A277" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E277" s="2">
+      <c r="E277" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="2" t="s">
+    <row r="278">
+      <c r="A278" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E278" s="2">
+      <c r="E278" s="3">
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="2" t="s">
+    <row r="279">
+      <c r="A279" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E279" s="2">
+      <c r="E279" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="2" t="s">
+    <row r="280">
+      <c r="A280" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E280" s="2">
+      <c r="E280" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="2" t="s">
+    <row r="281">
+      <c r="A281" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E281" s="2">
+      <c r="E281" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="2" t="s">
+    <row r="282">
+      <c r="A282" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="E282" s="2">
+      <c r="E282" s="3">
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="2" t="s">
+    <row r="283">
+      <c r="A283" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E283" s="2">
+      <c r="E283" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="2" t="s">
+    <row r="284">
+      <c r="A284" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="E284" s="2">
+      <c r="E284" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="2" t="s">
+    <row r="285">
+      <c r="A285" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="E285" s="2">
+      <c r="E285" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="2" t="s">
+    <row r="286">
+      <c r="A286" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E286" s="2">
+      <c r="E286" s="3">
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="2" t="s">
+    <row r="287">
+      <c r="A287" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E287" s="2">
+      <c r="E287" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="2" t="s">
+    <row r="288">
+      <c r="A288" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B288" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E288" s="2">
+      <c r="E288" s="3">
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="2" t="s">
+    <row r="289">
+      <c r="A289" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="E289" s="2">
+      <c r="E289" s="3">
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="2" t="s">
+    <row r="290">
+      <c r="A290" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E290" s="2">
+      <c r="E290" s="3">
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="2" t="s">
+    <row r="291">
+      <c r="A291" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E291" s="2">
+      <c r="E291" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="2" t="s">
+    <row r="292">
+      <c r="A292" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E292" s="2">
+      <c r="E292" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="2" t="s">
+    <row r="293">
+      <c r="A293" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E293" s="2">
+      <c r="E293" s="3">
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="2" t="s">
+    <row r="294">
+      <c r="A294" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E294" s="2">
+      <c r="E294" s="3">
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="2" t="s">
+    <row r="295">
+      <c r="A295" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E295" s="2">
+      <c r="E295" s="3">
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="2" t="s">
+    <row r="296">
+      <c r="A296" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B296" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E296" s="2">
+      <c r="E296" s="3">
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="2" t="s">
+    <row r="297">
+      <c r="A297" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="E297" s="2">
+      <c r="E297" s="3">
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
-      <c r="A298" s="2" t="s">
+    <row r="298">
+      <c r="A298" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="E298" s="2">
+      <c r="E298" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="2" t="s">
+    <row r="299">
+      <c r="A299" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E299" s="2">
+      <c r="E299" s="3">
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="2" t="s">
+    <row r="300">
+      <c r="A300" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E300" s="2">
+      <c r="E300" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="2" t="s">
+    <row r="301">
+      <c r="A301" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E301" s="2">
+      <c r="E301" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
-      <c r="A302" s="2" t="s">
+    <row r="302">
+      <c r="A302" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E302" s="2">
+      <c r="E302" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
-      <c r="A303" s="2" t="s">
+    <row r="303">
+      <c r="A303" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E303" s="2">
+      <c r="E303" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
-      <c r="A304" s="2" t="s">
+    <row r="304">
+      <c r="A304" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B304" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E304" s="2">
+      <c r="E304" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="2" t="s">
+    <row r="305">
+      <c r="A305" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="E305" s="2">
+      <c r="E305" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="2" t="s">
+    <row r="306">
+      <c r="A306" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E306" s="2">
+      <c r="E306" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="2" t="s">
+    <row r="307">
+      <c r="A307" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C307" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E307" s="2">
+      <c r="E307" s="3">
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="2" t="s">
+    <row r="308">
+      <c r="A308" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C308" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E308" s="2">
+      <c r="E308" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="2" t="s">
+    <row r="309">
+      <c r="A309" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E309" s="2">
+      <c r="E309" s="3">
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
-      <c r="A310" s="2" t="s">
+    <row r="310">
+      <c r="A310" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C310" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E310" s="2">
+      <c r="E310" s="3">
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="2" t="s">
+    <row r="311">
+      <c r="A311" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C311" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E311" s="2">
+      <c r="E311" s="3">
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
-      <c r="A312" s="2" t="s">
+    <row r="312">
+      <c r="A312" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="E312" s="2">
+      <c r="E312" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="2" t="s">
+    <row r="313">
+      <c r="A313" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="E313" s="2">
+      <c r="E313" s="3">
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="2" t="s">
+    <row r="314">
+      <c r="A314" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E314" s="2">
+      <c r="E314" s="3">
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
-      <c r="A315" s="2" t="s">
+    <row r="315">
+      <c r="A315" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E315" s="2">
+      <c r="E315" s="3">
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="2" t="s">
+    <row r="316">
+      <c r="A316" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E316" s="2">
+      <c r="E316" s="3">
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="2" t="s">
+    <row r="317">
+      <c r="A317" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E317" s="2">
+      <c r="E317" s="3">
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
-      <c r="A318" s="2" t="s">
+    <row r="318">
+      <c r="A318" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E318" s="2">
+      <c r="E318" s="3">
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="2" t="s">
+    <row r="319">
+      <c r="A319" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C319" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E319" s="2">
+      <c r="E319" s="3">
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="2" t="s">
+    <row r="320">
+      <c r="A320" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="E320" s="2">
+      <c r="E320" s="3">
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="2" t="s">
+    <row r="321">
+      <c r="A321" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C321" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E321" s="2">
+      <c r="E321" s="3">
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="2" t="s">
+    <row r="322">
+      <c r="A322" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="E322" s="2">
+      <c r="E322" s="3">
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="2" t="s">
+    <row r="323">
+      <c r="A323" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C323" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E323" s="2">
+      <c r="E323" s="3">
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="2" t="s">
+    <row r="324">
+      <c r="A324" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C324" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="E324" s="2">
+      <c r="E324" s="3">
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="2" t="s">
+    <row r="325">
+      <c r="A325" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C325" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E325" s="2">
+      <c r="E325" s="3">
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
-      <c r="A326" s="2" t="s">
+    <row r="326">
+      <c r="A326" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C326" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E326" s="2">
+      <c r="E326" s="3">
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="2" t="s">
+    <row r="327">
+      <c r="A327" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C327" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E327" s="2">
+      <c r="E327" s="3">
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
-      <c r="A328" s="2" t="s">
+    <row r="328">
+      <c r="A328" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="E328" s="2">
+      <c r="E328" s="3">
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="2" t="s">
+    <row r="329">
+      <c r="A329" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="E329" s="2">
+      <c r="E329" s="3">
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="2" t="s">
+    <row r="330">
+      <c r="A330" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C330" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="E330" s="2">
+      <c r="E330" s="3">
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="2" t="s">
+    <row r="331">
+      <c r="A331" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C331" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="E331" s="2">
+      <c r="E331" s="3">
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="2" t="s">
+    <row r="332">
+      <c r="A332" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C332" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="E332" s="2">
+      <c r="E332" s="3">
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="2" t="s">
+    <row r="333">
+      <c r="A333" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C333" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="E333" s="2">
+      <c r="E333" s="3">
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="2" t="s">
+    <row r="334">
+      <c r="A334" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="E334" s="2">
+      <c r="E334" s="3">
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
-      <c r="A335" s="2" t="s">
+    <row r="335">
+      <c r="A335" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="C335" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="E335" s="2">
+      <c r="E335" s="3">
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="2" t="s">
+    <row r="336">
+      <c r="A336" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="C336" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="E336" s="2">
+      <c r="E336" s="3">
         <v>336</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
-      <c r="A337" s="2" t="s">
+    <row r="337">
+      <c r="A337" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="C337" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="E337" s="2">
+      <c r="E337" s="3">
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="2" t="s">
+    <row r="338">
+      <c r="A338" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="C338" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="E338" s="2">
+      <c r="E338" s="3">
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="2" t="s">
+    <row r="339">
+      <c r="A339" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C339" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="E339" s="2">
+      <c r="E339" s="3">
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="2" t="s">
+    <row r="340">
+      <c r="A340" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="C340" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="E340" s="2">
+      <c r="E340" s="3">
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="2" t="s">
+    <row r="341">
+      <c r="A341" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="C341" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="E341" s="2">
+      <c r="E341" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="2" t="s">
+    <row r="342">
+      <c r="A342" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="C342" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="E342" s="2">
+      <c r="E342" s="3">
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="2" t="s">
+    <row r="343">
+      <c r="A343" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="C343" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="E343" s="2">
+      <c r="E343" s="3">
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="2" t="s">
+    <row r="344">
+      <c r="A344" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C344" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="E344" s="2">
+      <c r="E344" s="3">
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="2" t="s">
+    <row r="345">
+      <c r="A345" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C345" s="2" t="s">
+      <c r="C345" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="E345" s="2">
+      <c r="E345" s="3">
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="2" t="s">
+    <row r="346">
+      <c r="A346" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="C346" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="E346" s="2">
+      <c r="E346" s="3">
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
-      <c r="A347" s="2" t="s">
+    <row r="347">
+      <c r="A347" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C347" s="2" t="s">
+      <c r="C347" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="E347" s="2">
+      <c r="E347" s="3">
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
-      <c r="A348" s="2" t="s">
+    <row r="348">
+      <c r="A348" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C348" s="2" t="s">
+      <c r="C348" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="E348" s="2">
+      <c r="E348" s="3">
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="2" t="s">
+    <row r="349">
+      <c r="A349" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="C349" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E349" s="2">
+      <c r="E349" s="3">
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="2" t="s">
+    <row r="350">
+      <c r="A350" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C350" s="2" t="s">
+      <c r="C350" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="E350" s="2">
+      <c r="E350" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="2" t="s">
+    <row r="351">
+      <c r="A351" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="C351" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="E351" s="2">
+      <c r="E351" s="3">
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
-      <c r="A352" s="2" t="s">
+    <row r="352">
+      <c r="A352" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C352" s="2" t="s">
+      <c r="C352" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="E352" s="2">
+      <c r="E352" s="3">
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
-      <c r="A353" s="2" t="s">
+    <row r="353">
+      <c r="A353" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C353" s="2" t="s">
+      <c r="C353" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="E353" s="2">
+      <c r="E353" s="3">
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
-      <c r="A354" s="2" t="s">
+    <row r="354">
+      <c r="A354" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="C354" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="E354" s="2">
+      <c r="E354" s="3">
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
-      <c r="A355" s="2" t="s">
+    <row r="355">
+      <c r="A355" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="C355" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="E355" s="2">
+      <c r="E355" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="2" t="s">
+    <row r="356">
+      <c r="A356" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="C356" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="E356" s="2">
+      <c r="E356" s="3">
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
-      <c r="A357" s="2" t="s">
+    <row r="357">
+      <c r="A357" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C357" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="E357" s="2">
+      <c r="E357" s="3">
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
-      <c r="A358" s="2" t="s">
+    <row r="358">
+      <c r="A358" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="C358" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="E358" s="2">
+      <c r="E358" s="3">
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
-      <c r="A359" s="2" t="s">
+    <row r="359">
+      <c r="A359" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C359" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="E359" s="2">
+      <c r="E359" s="3">
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
-      <c r="A360" s="2" t="s">
+    <row r="360">
+      <c r="A360" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="C360" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="E360" s="2">
+      <c r="E360" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
-      <c r="A361" s="2" t="s">
+    <row r="361">
+      <c r="A361" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="C361" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="E361" s="2">
+      <c r="E361" s="3">
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
-      <c r="A362" s="2" t="s">
+    <row r="362">
+      <c r="A362" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C362" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="E362" s="2">
+      <c r="E362" s="3">
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
-      <c r="A363" s="2" t="s">
+    <row r="363">
+      <c r="A363" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="C363" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="E363" s="2">
+      <c r="E363" s="3">
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
-      <c r="A364" s="2" t="s">
+    <row r="364">
+      <c r="A364" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="C364" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="E364" s="2">
+      <c r="E364" s="3">
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
-      <c r="A365" s="2" t="s">
+    <row r="365">
+      <c r="A365" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="C365" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="E365" s="2">
+      <c r="E365" s="3">
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
-      <c r="A366" s="2" t="s">
+    <row r="366">
+      <c r="A366" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C366" s="2" t="s">
+      <c r="C366" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="E366" s="2">
+      <c r="E366" s="3">
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
-      <c r="A367" s="2" t="s">
+    <row r="367">
+      <c r="A367" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="C367" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="E367" s="2">
+      <c r="E367" s="3">
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
-      <c r="A368" s="2" t="s">
+    <row r="368">
+      <c r="A368" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="C368" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="E368" s="2">
+      <c r="E368" s="3">
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
-      <c r="A369" s="2" t="s">
+    <row r="369">
+      <c r="A369" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C369" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="E369" s="2">
+      <c r="E369" s="3">
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
-      <c r="A370" s="2" t="s">
+    <row r="370">
+      <c r="A370" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="C370" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="E370" s="2">
+      <c r="E370" s="3">
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
-      <c r="A371" s="2" t="s">
+    <row r="371">
+      <c r="A371" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C371" s="2" t="s">
+      <c r="C371" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="E371" s="2">
+      <c r="E371" s="3">
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
-      <c r="A372" s="2" t="s">
+    <row r="372">
+      <c r="A372" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C372" s="2" t="s">
+      <c r="C372" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="E372" s="2">
+      <c r="E372" s="3">
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
-      <c r="A373" s="2" t="s">
+    <row r="373">
+      <c r="A373" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C373" s="2" t="s">
+      <c r="C373" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="E373" s="2">
+      <c r="E373" s="3">
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="2" t="s">
+    <row r="374">
+      <c r="A374" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C374" s="2" t="s">
+      <c r="C374" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="E374" s="2">
+      <c r="E374" s="3">
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
-      <c r="A375" s="2" t="s">
+    <row r="375">
+      <c r="A375" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C375" s="2" t="s">
+      <c r="C375" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="E375" s="2">
+      <c r="E375" s="3">
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="2" t="s">
+    <row r="376">
+      <c r="A376" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C376" s="2" t="s">
+      <c r="C376" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="E376" s="2">
+      <c r="E376" s="3">
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
-      <c r="A377" s="2" t="s">
+    <row r="377">
+      <c r="A377" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C377" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="E377" s="2">
+      <c r="E377" s="3">
         <v>377</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
-      <c r="A378" s="2" t="s">
+    <row r="378">
+      <c r="A378" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="C378" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="E378" s="2">
+      <c r="E378" s="3">
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
-      <c r="A379" s="2" t="s">
+    <row r="379">
+      <c r="A379" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="C379" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E379" s="2">
+      <c r="E379" s="3">
         <v>379</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
-      <c r="A380" s="2" t="s">
+    <row r="380">
+      <c r="A380" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C380" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="E380" s="2">
+      <c r="E380" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="2" t="s">
+    <row r="381">
+      <c r="A381" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="C381" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="E381" s="2">
+      <c r="E381" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="2" t="s">
+    <row r="382">
+      <c r="A382" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="C382" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="E382" s="2">
+      <c r="E382" s="3">
         <v>382</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
-      <c r="A383" s="2" t="s">
+    <row r="383">
+      <c r="A383" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="C383" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="E383" s="2">
+      <c r="E383" s="3">
         <v>383</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
-      <c r="A384" s="2" t="s">
+    <row r="384">
+      <c r="A384" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C384" s="2" t="s">
+      <c r="C384" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E384" s="2">
+      <c r="E384" s="3">
         <v>384</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
-      <c r="A385" s="2" t="s">
+    <row r="385">
+      <c r="A385" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C385" s="2" t="s">
+      <c r="C385" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="E385" s="2">
+      <c r="E385" s="3">
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
-      <c r="A386" s="2" t="s">
+    <row r="386">
+      <c r="A386" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="C386" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="E386" s="2">
+      <c r="E386" s="3">
         <v>386</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
-      <c r="A387" s="2" t="s">
+    <row r="387">
+      <c r="A387" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="C387" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="E387" s="2">
+      <c r="E387" s="3">
         <v>387</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
-      <c r="A388" s="2" t="s">
+    <row r="388">
+      <c r="A388" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C388" s="2" t="s">
+      <c r="C388" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E388" s="2">
+      <c r="E388" s="3">
         <v>388</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
-      <c r="A389" s="2" t="s">
+    <row r="389">
+      <c r="A389" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C389" s="2" t="s">
+      <c r="C389" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="E389" s="2">
+      <c r="E389" s="3">
         <v>389</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
-      <c r="A390" s="2" t="s">
+    <row r="390">
+      <c r="A390" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="C390" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E390" s="2">
+      <c r="E390" s="3">
         <v>390</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
-      <c r="A391" s="2" t="s">
+    <row r="391">
+      <c r="A391" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="C391" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E391" s="2">
+      <c r="E391" s="3">
         <v>391</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
-      <c r="A392" s="2" t="s">
+    <row r="392">
+      <c r="A392" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="C392" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="E392" s="2">
+      <c r="E392" s="3">
         <v>392</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
-      <c r="A393" s="2" t="s">
+    <row r="393">
+      <c r="A393" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C393" s="2" t="s">
+      <c r="C393" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E393" s="2">
+      <c r="E393" s="3">
         <v>393</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
-      <c r="A394" s="2" t="s">
+    <row r="394">
+      <c r="A394" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C394" s="2" t="s">
+      <c r="C394" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="E394" s="2">
+      <c r="E394" s="3">
         <v>394</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
-      <c r="A395" s="2" t="s">
+    <row r="395">
+      <c r="A395" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C395" s="2" t="s">
+      <c r="C395" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E395" s="2">
+      <c r="E395" s="3">
         <v>395</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
-      <c r="A396" s="2" t="s">
+    <row r="396">
+      <c r="A396" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C396" s="2" t="s">
+      <c r="C396" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E396" s="2">
+      <c r="E396" s="3">
         <v>396</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
-      <c r="A397" s="2" t="s">
+    <row r="397">
+      <c r="A397" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="C397" s="2" t="s">
+      <c r="C397" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="E397" s="2">
+      <c r="E397" s="3">
         <v>397</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
-      <c r="A398" s="2" t="s">
+    <row r="398">
+      <c r="A398" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C398" s="2" t="s">
+      <c r="C398" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="E398" s="2">
+      <c r="E398" s="3">
         <v>398</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
-      <c r="A399" s="2" t="s">
+    <row r="399">
+      <c r="A399" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C399" s="3" t="s">
+      <c r="C399" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="E399" s="2">
+      <c r="E399" s="3">
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
-      <c r="A400" s="2" t="s">
+    <row r="400">
+      <c r="A400" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="C400" s="2" t="s">
+      <c r="C400" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="E400" s="2">
+      <c r="E400" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
-      <c r="A401" s="2" t="s">
+    <row r="401">
+      <c r="A401" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C401" s="2" t="s">
+      <c r="C401" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="E401" s="2">
+      <c r="E401" s="3">
         <v>401</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
-      <c r="A402" s="2" t="s">
+    <row r="402">
+      <c r="A402" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="C402" s="2" t="s">
+      <c r="C402" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="E402" s="2">
+      <c r="E402" s="3">
         <v>402</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
-      <c r="A403" s="2" t="s">
+    <row r="403">
+      <c r="A403" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C403" s="2" t="s">
+      <c r="C403" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="E403" s="2">
+      <c r="E403" s="3">
         <v>403</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
-      <c r="A404" s="2" t="s">
+    <row r="404">
+      <c r="A404" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="C404" s="3" t="s">
+      <c r="C404" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="E404" s="2">
+      <c r="E404" s="3">
         <v>404</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
-      <c r="A405" s="2" t="s">
+    <row r="405">
+      <c r="A405" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="C405" s="2" t="s">
+      <c r="C405" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="E405" s="2">
+      <c r="E405" s="3">
         <v>405</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
-      <c r="A406" s="2" t="s">
+    <row r="406">
+      <c r="A406" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C406" s="2" t="s">
+      <c r="C406" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="E406" s="2">
+      <c r="E406" s="3">
         <v>406</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
-      <c r="A407" s="2" t="s">
+    <row r="407">
+      <c r="A407" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="C407" s="2" t="s">
+      <c r="C407" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="E407" s="2">
+      <c r="E407" s="3">
         <v>407</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
-      <c r="A408" s="2" t="s">
+    <row r="408">
+      <c r="A408" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B408" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="C408" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E408" s="2">
+      <c r="E408" s="3">
         <v>408</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
-      <c r="A409" s="2" t="s">
+    <row r="409">
+      <c r="A409" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="C409" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="E409" s="2">
+      <c r="E409" s="3">
         <v>409</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
-      <c r="A410" s="2" t="s">
+    <row r="410">
+      <c r="A410" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C410" s="2" t="s">
+      <c r="C410" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="E410" s="2">
+      <c r="E410" s="3">
         <v>410</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
-      <c r="A411" s="2" t="s">
+    <row r="411">
+      <c r="A411" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C411" s="2" t="s">
+      <c r="C411" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E411" s="2">
+      <c r="E411" s="3">
         <v>411</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
-      <c r="A412" s="2" t="s">
+    <row r="412">
+      <c r="A412" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="C412" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="E412" s="2">
+      <c r="E412" s="3">
         <v>412</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
-      <c r="A413" s="2" t="s">
+    <row r="413">
+      <c r="A413" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="C413" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E413" s="2">
+      <c r="E413" s="3">
         <v>413</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
-      <c r="A414" s="2" t="s">
+    <row r="414">
+      <c r="A414" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="C414" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="E414" s="2">
+      <c r="E414" s="3">
         <v>414</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
-      <c r="A415" s="2" t="s">
+    <row r="415">
+      <c r="A415" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="C415" s="2" t="s">
+      <c r="C415" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="E415" s="2">
+      <c r="E415" s="3">
         <v>415</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
-      <c r="A416" s="2" t="s">
+    <row r="416">
+      <c r="A416" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C416" s="2" t="s">
+      <c r="C416" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E416" s="2">
+      <c r="E416" s="3">
         <v>416</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
-      <c r="A417" s="2" t="s">
+    <row r="417">
+      <c r="A417" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="C417" s="3" t="s">
+      <c r="C417" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="E417" s="2">
+      <c r="E417" s="3">
         <v>417</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
-      <c r="A418" s="2" t="s">
+    <row r="418">
+      <c r="A418" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C418" s="2" t="s">
+      <c r="C418" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E418" s="2">
+      <c r="E418" s="3">
         <v>418</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
-      <c r="A419" s="2" t="s">
+    <row r="419">
+      <c r="A419" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="C419" s="2" t="s">
+      <c r="C419" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="E419" s="2">
+      <c r="E419" s="3">
         <v>419</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
-      <c r="A420" s="2" t="s">
+    <row r="420">
+      <c r="A420" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C420" s="2" t="s">
+      <c r="C420" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E420" s="2">
+      <c r="E420" s="3">
         <v>420</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
-      <c r="A421" s="2" t="s">
+    <row r="421">
+      <c r="A421" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C421" s="2" t="s">
+      <c r="C421" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="E421" s="2">
+      <c r="E421" s="3">
         <v>421</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
-      <c r="A422" s="2" t="s">
+    <row r="422">
+      <c r="A422" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B422" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C422" s="2" t="s">
+      <c r="C422" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E422" s="2">
+      <c r="E422" s="3">
         <v>422</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
-      <c r="A423" s="2" t="s">
+    <row r="423">
+      <c r="A423" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="C423" s="2" t="s">
+      <c r="C423" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="E423" s="2">
+      <c r="E423" s="3">
         <v>423</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
-      <c r="A424" s="2" t="s">
+    <row r="424">
+      <c r="A424" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="C424" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E424" s="2">
+      <c r="E424" s="3">
         <v>424</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
-      <c r="A425" s="2" t="s">
+    <row r="425">
+      <c r="A425" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="C425" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="E425" s="2">
+      <c r="E425" s="3">
         <v>425</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
-      <c r="A426" s="2" t="s">
+    <row r="426">
+      <c r="A426" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="B426" s="3" t="s">
+      <c r="B426" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="C426" s="3" t="s">
+      <c r="C426" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="E426" s="2">
+      <c r="E426" s="3">
         <v>426</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
-      <c r="A427" s="2" t="s">
+    <row r="427">
+      <c r="A427" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C427" s="2" t="s">
+      <c r="C427" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E427" s="2">
+      <c r="E427" s="3">
         <v>427</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
-      <c r="A428" s="2" t="s">
+    <row r="428">
+      <c r="A428" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="C428" s="2" t="s">
+      <c r="C428" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="E428" s="2">
+      <c r="E428" s="3">
         <v>428</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
-      <c r="A429" s="2" t="s">
+    <row r="429">
+      <c r="A429" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C429" s="2" t="s">
+      <c r="C429" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E429" s="2">
+      <c r="E429" s="3">
         <v>429</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
-      <c r="A430" s="2" t="s">
+    <row r="430">
+      <c r="A430" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B430" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="C430" s="2" t="s">
+      <c r="C430" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="E430" s="2">
+      <c r="E430" s="3">
         <v>430</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
-      <c r="A431" s="2" t="s">
+    <row r="431">
+      <c r="A431" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B431" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C431" s="2" t="s">
+      <c r="C431" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E431" s="2">
+      <c r="E431" s="3">
         <v>431</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
-      <c r="A432" s="2" t="s">
+    <row r="432">
+      <c r="A432" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="C432" s="2" t="s">
+      <c r="C432" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="E432" s="2">
+      <c r="E432" s="3">
         <v>432</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
-      <c r="A433" s="2" t="s">
+    <row r="433">
+      <c r="A433" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="C433" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E433" s="2">
+      <c r="E433" s="3">
         <v>433</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
-      <c r="A434" s="2" t="s">
+    <row r="434">
+      <c r="A434" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="C434" s="2" t="s">
+      <c r="C434" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="E434" s="2">
+      <c r="E434" s="3">
         <v>434</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
-      <c r="A435" s="2" t="s">
+    <row r="435">
+      <c r="A435" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="C435" s="3" t="s">
+      <c r="C435" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="E435" s="2">
+      <c r="E435" s="3">
         <v>435</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
-      <c r="A436" s="2" t="s">
+    <row r="436">
+      <c r="A436" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C436" s="2" t="s">
+      <c r="C436" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E436" s="2">
+      <c r="E436" s="3">
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
-      <c r="A437" s="2" t="s">
+    <row r="437">
+      <c r="A437" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="C437" s="2" t="s">
+      <c r="C437" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="E437" s="2">
+      <c r="E437" s="3">
         <v>437</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
-      <c r="A438" s="2" t="s">
+    <row r="438">
+      <c r="A438" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C438" s="2" t="s">
+      <c r="C438" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E438" s="2">
+      <c r="E438" s="3">
         <v>438</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
-      <c r="A439" s="2" t="s">
+    <row r="439">
+      <c r="A439" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="C439" s="2" t="s">
+      <c r="C439" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="E439" s="2">
+      <c r="E439" s="3">
         <v>439</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
-      <c r="A440" s="2" t="s">
+    <row r="440">
+      <c r="A440" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B440" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C440" s="2" t="s">
+      <c r="C440" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E440" s="2">
+      <c r="E440" s="3">
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
-      <c r="A441" s="2" t="s">
+    <row r="441">
+      <c r="A441" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="C441" s="2" t="s">
+      <c r="C441" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="E441" s="2">
+      <c r="E441" s="3">
         <v>441</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
-      <c r="A442" s="2" t="s">
+    <row r="442">
+      <c r="A442" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C442" s="2" t="s">
+      <c r="C442" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E442" s="2">
+      <c r="E442" s="3">
         <v>442</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
-      <c r="A443" s="2" t="s">
+    <row r="443">
+      <c r="A443" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="C443" s="2" t="s">
+      <c r="C443" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="E443" s="2">
+      <c r="E443" s="3">
         <v>443</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
-      <c r="A444" s="2" t="s">
+    <row r="444">
+      <c r="A444" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="B444" s="3" t="s">
+      <c r="B444" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="C444" s="3" t="s">
+      <c r="C444" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="E444" s="2">
+      <c r="E444" s="3">
         <v>444</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
-      <c r="A445" s="2" t="s">
+    <row r="445">
+      <c r="A445" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="B445" s="3" t="s">
+      <c r="B445" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C445" s="3" t="s">
+      <c r="C445" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E445" s="2">
+      <c r="E445" s="3">
         <v>445</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
-      <c r="A446" s="2" t="s">
+    <row r="446">
+      <c r="A446" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B446" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C446" s="2" t="s">
+      <c r="C446" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E446" s="2">
+      <c r="E446" s="3">
         <v>446</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
-      <c r="A447" s="2" t="s">
+    <row r="447">
+      <c r="A447" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="B447" s="3" t="s">
+      <c r="B447" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="C447" s="3" t="s">
+      <c r="C447" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="E447" s="2">
+      <c r="E447" s="3">
         <v>447</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
-      <c r="A448" s="2" t="s">
+    <row r="448">
+      <c r="A448" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="B448" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C448" s="3" t="s">
+      <c r="C448" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E448" s="2">
+      <c r="E448" s="3">
         <v>448</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
-      <c r="A449" s="2" t="s">
+    <row r="449">
+      <c r="A449" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B449" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C449" s="2" t="s">
+      <c r="C449" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E449" s="2">
+      <c r="E449" s="3">
         <v>449</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
-      <c r="A450" s="2" t="s">
+    <row r="450">
+      <c r="A450" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B450" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="C450" s="2" t="s">
+      <c r="C450" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="E450" s="2">
+      <c r="E450" s="3">
         <v>450</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
-      <c r="A451" s="2" t="s">
+    <row r="451">
+      <c r="A451" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B451" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C451" s="2" t="s">
+      <c r="C451" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="E451" s="2">
+      <c r="E451" s="3">
         <v>451</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
-      <c r="A452" s="2" t="s">
+    <row r="452">
+      <c r="A452" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B452" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="C452" s="2" t="s">
+      <c r="C452" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E452" s="2">
+      <c r="E452" s="3">
         <v>452</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
-      <c r="A453" s="2" t="s">
+    <row r="453">
+      <c r="A453" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B453" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="C453" s="2" t="s">
+      <c r="C453" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="E453" s="2">
+      <c r="E453" s="3">
         <v>453</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
-      <c r="A454" s="2" t="s">
+    <row r="454">
+      <c r="A454" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B454" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="C454" s="2" t="s">
+      <c r="C454" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="E454" s="2">
+      <c r="E454" s="3">
         <v>454</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
-      <c r="A455" s="2" t="s">
+    <row r="455">
+      <c r="A455" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="C455" s="2" t="s">
+      <c r="C455" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="E455" s="2">
+      <c r="E455" s="3">
         <v>455</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
-      <c r="A456" s="2" t="s">
+    <row r="456">
+      <c r="A456" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C456" s="2" t="s">
+      <c r="C456" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="E456" s="2">
+      <c r="E456" s="3">
         <v>456</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
-      <c r="A457" s="2" t="s">
+    <row r="457">
+      <c r="A457" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B457" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="C457" s="2" t="s">
+      <c r="C457" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="E457" s="2">
+      <c r="E457" s="3">
         <v>457</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
-      <c r="A458" s="2" t="s">
+    <row r="458">
+      <c r="A458" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="B458" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="C458" s="2" t="s">
+      <c r="C458" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="E458" s="2">
+      <c r="E458" s="3">
         <v>458</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
-      <c r="A459" s="2" t="s">
+    <row r="459">
+      <c r="A459" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B459" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="C459" s="2" t="s">
+      <c r="C459" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="E459" s="2">
+      <c r="E459" s="3">
         <v>459</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
-      <c r="A460" s="2" t="s">
+    <row r="460">
+      <c r="A460" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="B460" s="3" t="s">
+      <c r="B460" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="C460" s="3" t="s">
+      <c r="C460" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="E460" s="2">
+      <c r="E460" s="3">
         <v>460</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
-      <c r="A461" s="2" t="s">
+    <row r="461">
+      <c r="A461" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="B461" s="3" t="s">
+      <c r="B461" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C461" s="3" t="s">
+      <c r="C461" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E461" s="2">
+      <c r="E461" s="3">
         <v>461</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
-      <c r="A462" s="2" t="s">
+    <row r="462">
+      <c r="A462" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B462" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C462" s="2" t="s">
+      <c r="C462" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E462" s="2">
+      <c r="E462" s="3">
         <v>462</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
-      <c r="A463" s="2" t="s">
+    <row r="463">
+      <c r="A463" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="B463" s="3" t="s">
+      <c r="B463" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="C463" s="3" t="s">
+      <c r="C463" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="E463" s="2">
+      <c r="E463" s="3">
         <v>463</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
-      <c r="A464" s="2" t="s">
+    <row r="464">
+      <c r="A464" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="B464" s="3" t="s">
+      <c r="B464" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C464" s="3" t="s">
+      <c r="C464" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E464" s="2">
+      <c r="E464" s="3">
         <v>464</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
-      <c r="A465" s="2" t="s">
+    <row r="465">
+      <c r="A465" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B465" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C465" s="2" t="s">
+      <c r="C465" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E465" s="2">
+      <c r="E465" s="3">
         <v>465</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
-      <c r="A466" s="2" t="s">
+    <row r="466">
+      <c r="A466" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B466" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="C466" s="2" t="s">
+      <c r="C466" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="D466" s="2" t="s">
+      <c r="D466" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="E466" s="2">
+      <c r="E466" s="3">
         <v>466</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
-      <c r="A467" s="2" t="s">
+    <row r="467">
+      <c r="A467" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="C467" s="2" t="s">
+      <c r="C467" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="D467" s="2" t="s">
+      <c r="D467" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="E467" s="2">
+      <c r="E467" s="3">
         <v>467</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/CustomLocalization/Localization/RogueTech/RU/Abilifier/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Abilifier/LocalizationDef.xlsx
@@ -229,7 +229,7 @@
     <t>Increases max range bracket of support weapons by [AMT]m.</t>
   </si>
   <si>
-    <t>Увеличенные на [AMT]м макс. дистанции для оружий поддержки.</t>
+    <t>Увеличенные на [AMT]м макс. дистанции для орудий поддержки.</t>
   </si>
   <si>
     <t>AbilityDefFireAndSteel.StatusEffect-Flamer-RangeIncreaseLong.EffectData2.Name</t>
@@ -1072,7 +1072,7 @@
     <t>Random babble what this does</t>
   </si>
   <si>
-    <t>Случайное бормотание о том, что это делает.</t>
+    <t>Случайное бормотание о том, что это делает</t>
   </si>
   <si>
     <t>AbilityGu8AI.BerserkerAccuracyCharge.EffectData5.Name</t>
@@ -2014,7 +2014,7 @@
     <t>Minimum weapon ranges reduced by 45m</t>
   </si>
   <si>
-    <t>Минимальные дистанции оружий снижены на 45м</t>
+    <t>Минимальные дистанции вооружения снижены на 45м</t>
   </si>
   <si>
     <t>TraitDefMinRangeReduce45.TraitDefIndirectReduceOne.EffectData0.Name</t>
@@ -2932,15 +2932,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="C470" sqref="C470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="77.7109375" customWidth="1" style="3"/>
-    <col min="4" max="7" width="9.140625" customWidth="1" style="3"/>
-    <col min="8" max="16384" width="9.140625" customWidth="1" style="3"/>
+    <col min="4" max="8" width="9.140625" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="9.140625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1">
